--- a/data/hotels_by_city/Dallas/Dallas_shard_656.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_656.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1475 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r557171680-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>106723</t>
+  </si>
+  <si>
+    <t>557171680</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Cockroaches in the room</t>
+  </si>
+  <si>
+    <t>Room 205
+2 bedroom 2 bath 2 king suite - bedroom 1: 1 King bed, TV, 3 drawer chest, large closet, vanity/sink separate from toilet/shower tub combo. Living room:  sofa bed, coffee table, arm chair, TV. 3 drawer chest, and fireplace. Kitchen had a small table with chairs, refrigerator, dishwasher, coffee maker, microwave, and a full range and oven. Bedroom 2: 1 king bed, large closet, TV, 3-drawer chest, 
+vanity/sink separate from toilet/shower tub combo. The shelves in both bathrooms aren't mounted well on the wall and could use proper anchoring. The hotel website advertises that this hotel offers Netflix; however, we were told the first night that the internet connection was down and on the 2nd night that they were still working on getting the whole hotel up and running and that they wouldn't have it fully functing for months. A bit frustrating since we had expected it based on the website. 
+Hotel is backed up to a hillside so 2nd floor on the backside is at the same level as the mall parking lot behind the hotel. We had requested a top floor room but were told the only room available was on the 2nd, which seemed fine until we realized it was ground-floor level for the mall parking lot. So you get the noise from the parking lot sweeper in the morning and kids racing around in their cars leaving the mall parking lot at night. 
+Breakfast:...Room 2052 bedroom 2 bath 2 king suite - bedroom 1: 1 King bed, TV, 3 drawer chest, large closet, vanity/sink separate from toilet/shower tub combo. Living room:  sofa bed, coffee table, arm chair, TV. 3 drawer chest, and fireplace. Kitchen had a small table with chairs, refrigerator, dishwasher, coffee maker, microwave, and a full range and oven. Bedroom 2: 1 king bed, large closet, TV, 3-drawer chest, vanity/sink separate from toilet/shower tub combo. The shelves in both bathrooms aren't mounted well on the wall and could use proper anchoring. The hotel website advertises that this hotel offers Netflix; however, we were told the first night that the internet connection was down and on the 2nd night that they were still working on getting the whole hotel up and running and that they wouldn't have it fully functing for months. A bit frustrating since we had expected it based on the website. Hotel is backed up to a hillside so 2nd floor on the backside is at the same level as the mall parking lot behind the hotel. We had requested a top floor room but were told the only room available was on the 2nd, which seemed fine until we realized it was ground-floor level for the mall parking lot. So you get the noise from the parking lot sweeper in the morning and kids racing around in their cars leaving the mall parking lot at night. Breakfast: seating area is small so if you want a table be prepared to wait. There was a boys high school soccer team staying at the hotel so each morning was a challenge for the poor gal trying to replenish the food. I felt awful for her, they really should have gotten her some help. I don't blame her for not getting things cleaned up while running back and forth, I blame the hotel for not planning accordingly when they had a large group at the hotel. They had a good selection of breakfast items but not as good as some of the other hotels we stayed at. Indoor pool was nice (teenagers enjoyed it) and fitness center was right next to the pool with windows looking out to the pool area. The hotel as a whole is an older hotel and could use some updating throughout (carpeting in hallways and room is started to show alot of wear and the furnishings as well.On the morning of our second day my husband killed a cockroach in the kitchen area of our room. I called to the front desk and they assured me they would have their bug company come out to spray and that whatever they sprayed would not be toxic. When we returned that night, my daughter and husband found another cockroach climbing the wall in the bedroom. That was it for me, I was done. I called the front desk and said we'd had enough and that if there's 2 roaches that means there's more. They really need to do the entire hotel in order to be rid of them. The front desk called the Towneplace Suites across the street and made arrangements for us to stay there that night; however, we had already returned our rental car so we had no way to get our belongings there. We basically loaded everything up on the luggage cart and pushed it across the intersection/street to the Towneplace Suites. My husband was so angry, we felt like homeless people out there lugging our stuff across the street. Then to have to go through everything we had to ensure there were no roaches coming with us. Really something you shouldn't experience at a hotel on vacation. The Residence Inn still charged us for 3 nights and never contacted us again afterwards. The customer service stinks! I would NEVER stay at this property again, even if they got rid of the roaches - I cannot understand why they didn't even offer to comp us a night of stay or give us points or something for having to leave their hotel like that (I'm a long time Marriot Rewards member).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>William M, General Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Room 205
+2 bedroom 2 bath 2 king suite - bedroom 1: 1 King bed, TV, 3 drawer chest, large closet, vanity/sink separate from toilet/shower tub combo. Living room:  sofa bed, coffee table, arm chair, TV. 3 drawer chest, and fireplace. Kitchen had a small table with chairs, refrigerator, dishwasher, coffee maker, microwave, and a full range and oven. Bedroom 2: 1 king bed, large closet, TV, 3-drawer chest, 
+vanity/sink separate from toilet/shower tub combo. The shelves in both bathrooms aren't mounted well on the wall and could use proper anchoring. The hotel website advertises that this hotel offers Netflix; however, we were told the first night that the internet connection was down and on the 2nd night that they were still working on getting the whole hotel up and running and that they wouldn't have it fully functing for months. A bit frustrating since we had expected it based on the website. 
+Hotel is backed up to a hillside so 2nd floor on the backside is at the same level as the mall parking lot behind the hotel. We had requested a top floor room but were told the only room available was on the 2nd, which seemed fine until we realized it was ground-floor level for the mall parking lot. So you get the noise from the parking lot sweeper in the morning and kids racing around in their cars leaving the mall parking lot at night. 
+Breakfast:...Room 2052 bedroom 2 bath 2 king suite - bedroom 1: 1 King bed, TV, 3 drawer chest, large closet, vanity/sink separate from toilet/shower tub combo. Living room:  sofa bed, coffee table, arm chair, TV. 3 drawer chest, and fireplace. Kitchen had a small table with chairs, refrigerator, dishwasher, coffee maker, microwave, and a full range and oven. Bedroom 2: 1 king bed, large closet, TV, 3-drawer chest, vanity/sink separate from toilet/shower tub combo. The shelves in both bathrooms aren't mounted well on the wall and could use proper anchoring. The hotel website advertises that this hotel offers Netflix; however, we were told the first night that the internet connection was down and on the 2nd night that they were still working on getting the whole hotel up and running and that they wouldn't have it fully functing for months. A bit frustrating since we had expected it based on the website. Hotel is backed up to a hillside so 2nd floor on the backside is at the same level as the mall parking lot behind the hotel. We had requested a top floor room but were told the only room available was on the 2nd, which seemed fine until we realized it was ground-floor level for the mall parking lot. So you get the noise from the parking lot sweeper in the morning and kids racing around in their cars leaving the mall parking lot at night. Breakfast: seating area is small so if you want a table be prepared to wait. There was a boys high school soccer team staying at the hotel so each morning was a challenge for the poor gal trying to replenish the food. I felt awful for her, they really should have gotten her some help. I don't blame her for not getting things cleaned up while running back and forth, I blame the hotel for not planning accordingly when they had a large group at the hotel. They had a good selection of breakfast items but not as good as some of the other hotels we stayed at. Indoor pool was nice (teenagers enjoyed it) and fitness center was right next to the pool with windows looking out to the pool area. The hotel as a whole is an older hotel and could use some updating throughout (carpeting in hallways and room is started to show alot of wear and the furnishings as well.On the morning of our second day my husband killed a cockroach in the kitchen area of our room. I called to the front desk and they assured me they would have their bug company come out to spray and that whatever they sprayed would not be toxic. When we returned that night, my daughter and husband found another cockroach climbing the wall in the bedroom. That was it for me, I was done. I called the front desk and said we'd had enough and that if there's 2 roaches that means there's more. They really need to do the entire hotel in order to be rid of them. The front desk called the Towneplace Suites across the street and made arrangements for us to stay there that night; however, we had already returned our rental car so we had no way to get our belongings there. We basically loaded everything up on the luggage cart and pushed it across the intersection/street to the Towneplace Suites. My husband was so angry, we felt like homeless people out there lugging our stuff across the street. Then to have to go through everything we had to ensure there were no roaches coming with us. Really something you shouldn't experience at a hotel on vacation. The Residence Inn still charged us for 3 nights and never contacted us again afterwards. The customer service stinks! I would NEVER stay at this property again, even if they got rid of the roaches - I cannot understand why they didn't even offer to comp us a night of stay or give us points or something for having to leave their hotel like that (I'm a long time Marriot Rewards member).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r551289238-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>551289238</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Great Location and Clean Rooms</t>
+  </si>
+  <si>
+    <t>We attended graduation at UNT and chose the Residence Inn Dallas Lewisville as it was a great location, great price and the kitchen area is perfect for us.   The rooms were big, the dressing, vanity area was great with full lights and roomy.  The bathroom was small but sufficient.  The shower head was not as comfortable as I like.  The living space with large TV and Internet was a boon, and the beds were very comfortable.  Check-in to Check-out was easy and the staff is so friendly and accommodating.  Breakfast is hot and cold fares and so appreciated.  Will I stay again?  Absolutely</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r529734281-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>529734281</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Another cozy home to travel with :)</t>
+  </si>
+  <si>
+    <t>First time to visit Dallas for 6 weeks (yes, 1.5 months) and happen to be arranged in Residence Inn Lewisville. The facility is very closed to Vista Ridge Mall and there have plenty of dinings and look-around option, however, that's not yet the best attract me after few weeks spending time here. As far, the most enjoying part is the employ and the facility itself makes me feeling stay home, cozy, cozy and cozy. Still am enjoying so far for rest of month. Highly recommended.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r507129090-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>507129090</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights at Residence Inn in Lewisville Dallas during a Baseball Tournament. The entire staff there was very sweet and helpful.  Ms.Rita was a joy to be around every morning with her bright cheerful self! The breakfasts and social hours were wonderful! We saved a lot of money on meals and enjoyed the wonderful food!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r499977563-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>499977563</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE - ROACHES - GAVE AWAY ACCESSIBLE ROOM - STAY AWAY</t>
+  </si>
+  <si>
+    <t>Where do I begin with this horrible Marriott hotel?  Frankly, very disappointing for a Marriott. First and Foremost - ROACHES and DIRTY hotel.  The list is long, we stayed there 8 days in room 311. We were in for a baseball tourney and all the rooms in the general area were overbooked. 
+We reserved an accessible room, when we arrived on Friday they overbooked and gave it to someone else.  Really?  Who does that? Checked into our room, called about the mistake and was told by "Dee Dee" she would work on finding us a correct room or possibly moving us to another Marriott hotel, and she never called back.  In fact, Dee Dee said that never happens and wanted to know who placed the reservation for me = and it WAS HER!  I placed several calls to Dee Dee throughout the weekend and through the next week, and never returned my calls nor followed up.  
+Our room windows faced the mall - early every morning and late evening you could hear the trash and maintenance trucks roaring by. Very noisy. Ice machine was broken all week long - and there was only 1 ice machine in the hotel.
+On check out, I'm telling the desk manager about roaches, the desk manager looked at me in disbelief - JUST THEN my son came to the desk and told me there was a 3" roach on the wall in the lobby...Where do I begin with this horrible Marriott hotel?  Frankly, very disappointing for a Marriott. First and Foremost - ROACHES and DIRTY hotel.  The list is long, we stayed there 8 days in room 311. We were in for a baseball tourney and all the rooms in the general area were overbooked. We reserved an accessible room, when we arrived on Friday they overbooked and gave it to someone else.  Really?  Who does that? Checked into our room, called about the mistake and was told by "Dee Dee" she would work on finding us a correct room or possibly moving us to another Marriott hotel, and she never called back.  In fact, Dee Dee said that never happens and wanted to know who placed the reservation for me = and it WAS HER!  I placed several calls to Dee Dee throughout the weekend and through the next week, and never returned my calls nor followed up.  Our room windows faced the mall - early every morning and late evening you could hear the trash and maintenance trucks roaring by. Very noisy. Ice machine was broken all week long - and there was only 1 ice machine in the hotel.On check out, I'm telling the desk manager about roaches, the desk manager looked at me in disbelief - JUST THEN my son came to the desk and told me there was a 3" roach on the wall in the lobby hallway. Rita, the hostess in the lobby - went into action and took care of it.  Everything was dirty from the lobby to the rooms.  I spoke with the Manager, Will on our last day, and while he apologized - didn't do much for our inconvenience. STAY AWAY!  There are plenty of hotels in the general vicinity to stay - we will not be back. ON A GOOD NOTE, there were two very nice ladies that worked the lobby area - RITA and another lady I cannot for the life of me remember her name.  They made everyone feel welcome. The list:ROACHES in our room AND in the hallways/walls/ceilings of the hotel. One was 3".Broken tub stopper - 2nd bedroomBLOOD on carpet by sink - 2nd bedroomDirty sheetsBroken Ice Machine - ALL WEEK LONG! Only ONE ice machine in this hotel!Unheated indoor pool that was TOO cold to swim in - even in 96* weather.Pool ended up broken on our last two days - didn't use it anyway - too cold.Broken metal lock entry doorDirty carpetSalt/Pepper shakers brokenInefficient cookware in kitchenNo luggage racks (hotel cleaning staff went room to room looking for a luggage rack).One particular hotel cleaning staff seemed to be on Crack or Uppers of some kindBroken phone cord - MasterMoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Where do I begin with this horrible Marriott hotel?  Frankly, very disappointing for a Marriott. First and Foremost - ROACHES and DIRTY hotel.  The list is long, we stayed there 8 days in room 311. We were in for a baseball tourney and all the rooms in the general area were overbooked. 
+We reserved an accessible room, when we arrived on Friday they overbooked and gave it to someone else.  Really?  Who does that? Checked into our room, called about the mistake and was told by "Dee Dee" she would work on finding us a correct room or possibly moving us to another Marriott hotel, and she never called back.  In fact, Dee Dee said that never happens and wanted to know who placed the reservation for me = and it WAS HER!  I placed several calls to Dee Dee throughout the weekend and through the next week, and never returned my calls nor followed up.  
+Our room windows faced the mall - early every morning and late evening you could hear the trash and maintenance trucks roaring by. Very noisy. Ice machine was broken all week long - and there was only 1 ice machine in the hotel.
+On check out, I'm telling the desk manager about roaches, the desk manager looked at me in disbelief - JUST THEN my son came to the desk and told me there was a 3" roach on the wall in the lobby...Where do I begin with this horrible Marriott hotel?  Frankly, very disappointing for a Marriott. First and Foremost - ROACHES and DIRTY hotel.  The list is long, we stayed there 8 days in room 311. We were in for a baseball tourney and all the rooms in the general area were overbooked. We reserved an accessible room, when we arrived on Friday they overbooked and gave it to someone else.  Really?  Who does that? Checked into our room, called about the mistake and was told by "Dee Dee" she would work on finding us a correct room or possibly moving us to another Marriott hotel, and she never called back.  In fact, Dee Dee said that never happens and wanted to know who placed the reservation for me = and it WAS HER!  I placed several calls to Dee Dee throughout the weekend and through the next week, and never returned my calls nor followed up.  Our room windows faced the mall - early every morning and late evening you could hear the trash and maintenance trucks roaring by. Very noisy. Ice machine was broken all week long - and there was only 1 ice machine in the hotel.On check out, I'm telling the desk manager about roaches, the desk manager looked at me in disbelief - JUST THEN my son came to the desk and told me there was a 3" roach on the wall in the lobby hallway. Rita, the hostess in the lobby - went into action and took care of it.  Everything was dirty from the lobby to the rooms.  I spoke with the Manager, Will on our last day, and while he apologized - didn't do much for our inconvenience. STAY AWAY!  There are plenty of hotels in the general vicinity to stay - we will not be back. ON A GOOD NOTE, there were two very nice ladies that worked the lobby area - RITA and another lady I cannot for the life of me remember her name.  They made everyone feel welcome. The list:ROACHES in our room AND in the hallways/walls/ceilings of the hotel. One was 3".Broken tub stopper - 2nd bedroomBLOOD on carpet by sink - 2nd bedroomDirty sheetsBroken Ice Machine - ALL WEEK LONG! Only ONE ice machine in this hotel!Unheated indoor pool that was TOO cold to swim in - even in 96* weather.Pool ended up broken on our last two days - didn't use it anyway - too cold.Broken metal lock entry doorDirty carpetSalt/Pepper shakers brokenInefficient cookware in kitchenNo luggage racks (hotel cleaning staff went room to room looking for a luggage rack).One particular hotel cleaning staff seemed to be on Crack or Uppers of some kindBroken phone cord - MasterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r499797268-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>499797268</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, big suite </t>
+  </si>
+  <si>
+    <t>I enjoyed our stay here. Common areas are dated and need new paint and carpet. The pool was very cold and the hottub was overchlorinated and burned our eyes. All that being said, the room itself was large (2 bedroom suite), and clean. Which is what we came for. Front desk staff is friendly and helpful. There is a basketball court and an area where you can grill outside which I thought was cool. Breakfast included.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed our stay here. Common areas are dated and need new paint and carpet. The pool was very cold and the hottub was overchlorinated and burned our eyes. All that being said, the room itself was large (2 bedroom suite), and clean. Which is what we came for. Front desk staff is friendly and helpful. There is a basketball court and an area where you can grill outside which I thought was cool. Breakfast included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r487517231-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>487517231</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>The Staff is Priceless!!</t>
+  </si>
+  <si>
+    <t>I travel often for business.  I am not an executive.  Fancy hotels are not an option for me. That is why I appreciate this hotel!  Clean, comfortable rooms. Great price...AND..the BEST part is..THE STAFF!!  You HAVE to meet the Allstars: Miss DeeDee, Miss Sheila, Mr.Tray and Miss Tierra! They make you feel like family. At the end of the day, a hotel is a hotel. Why not stay at one that "sees" you?  I do.  It makes a difference!!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r485296228-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>485296228</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great value and comfortable </t>
+  </si>
+  <si>
+    <t>The room that I stayed is in the third floor, complete with kitchen and living space. It is very clean and modern decor. The location is fantastic since it is walking distance to many restaurants and shopping area. The staff is very professional and friendly. I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r470619208-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>470619208</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Time for an update</t>
+  </si>
+  <si>
+    <t>This hotel is tired, worn out, and nothing special by any means.  Breakfast is all fake food what a bummer, would have stayed at Hilton garden inn but it was sold out, for good reason..  rooms have full kitchens but who needs that for a regular business trip?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is tired, worn out, and nothing special by any means.  Breakfast is all fake food what a bummer, would have stayed at Hilton garden inn but it was sold out, for good reason..  rooms have full kitchens but who needs that for a regular business trip?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r455897541-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>455897541</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Outstanding, friendly staff</t>
+  </si>
+  <si>
+    <t>I recently stayed in a 2 bedroom suite for three nights.  Beds are comfortable and the suite is large.  The suite was clean and had all the amenities you may need.  The most enjoyable part of my stay was the friendly staff.  Front desk staff, Kevanna and Dee Dee were great!  Friendly, professional and willing to help you with anything you may need.  Nikki with housekeeping was also very helpful.  It was so refreshing to stay at a hotel where the staff really cared about their guests.  I'll stay there again when my travels take me to Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed in a 2 bedroom suite for three nights.  Beds are comfortable and the suite is large.  The suite was clean and had all the amenities you may need.  The most enjoyable part of my stay was the friendly staff.  Front desk staff, Kevanna and Dee Dee were great!  Friendly, professional and willing to help you with anything you may need.  Nikki with housekeeping was also very helpful.  It was so refreshing to stay at a hotel where the staff really cared about their guests.  I'll stay there again when my travels take me to Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r450035459-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>450035459</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Great stay for FCS Championship game. Friendly  staff. Excellent 1 bedroom suite. Fresh cookies and breakfast included. Convenient to shopping, restaurants and downtown. Very clean.  Free parking and free internet. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Great stay for FCS Championship game. Friendly  staff. Excellent 1 bedroom suite. Fresh cookies and breakfast included. Convenient to shopping, restaurants and downtown. Very clean.  Free parking and free internet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r446304730-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>446304730</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Marriott made Christmas even better this year!!!</t>
+  </si>
+  <si>
+    <t>Where do I begin....we arrived here on Dec. 19th to stay 1 night before arriving at the Great Wolf Lodge on Dec. 20th.....I booked 3 rooms, all 2 bedroom/2 bathroom suites, to accommodate all 15 of us  (kids and grand kids).....I cannot say enough positive comments about the staff and the hotel(DD, Trey, Janet).....we planned to get up on the 20th, eat a quick breakfast, and be over to the Great Wolf Lodge by 9am.....however, thanks to Marriott, that was delayed....but in the best way ever.  This Marriott had arranged for Santa Claus to be in the lobby early on the morning of the 20th.....and he was one of the best Santas we have ever seen.  All of us, kids and adults, were treated as a "kid"....we were able to get pics with Santa and the kids received one of the best stuffed reindeer we have ever seen given away, very high quality.  This made our day and our Christmas trip even more enjoyable.  I don't want to forget to speak of the high quality breakfast and the service provided by the lady who cooked it all and set it all up....she even sang Happy Birthday to one of my grandsons who did turn 21 on Dec. 20th.....Management took tons of pictures and offered to mail them to me, but I told then I would stop back by on Dec. 21st on our way home from the Great Wold Lodge.....I...Where do I begin....we arrived here on Dec. 19th to stay 1 night before arriving at the Great Wolf Lodge on Dec. 20th.....I booked 3 rooms, all 2 bedroom/2 bathroom suites, to accommodate all 15 of us  (kids and grand kids).....I cannot say enough positive comments about the staff and the hotel(DD, Trey, Janet).....we planned to get up on the 20th, eat a quick breakfast, and be over to the Great Wolf Lodge by 9am.....however, thanks to Marriott, that was delayed....but in the best way ever.  This Marriott had arranged for Santa Claus to be in the lobby early on the morning of the 20th.....and he was one of the best Santas we have ever seen.  All of us, kids and adults, were treated as a "kid"....we were able to get pics with Santa and the kids received one of the best stuffed reindeer we have ever seen given away, very high quality.  This made our day and our Christmas trip even more enjoyable.  I don't want to forget to speak of the high quality breakfast and the service provided by the lady who cooked it all and set it all up....she even sang Happy Birthday to one of my grandsons who did turn 21 on Dec. 20th.....Management took tons of pictures and offered to mail them to me, but I told then I would stop back by on Dec. 21st on our way home from the Great Wold Lodge.....I did and they had some of the best pictures ready for us.  We have stayed at MANY Marriott properties being a Gold Elite member, but none can match the hospitality, kindness, and FUN that this location provided.....Kudos to the mgt. team, cafe service, maintenance team, and housekeeping.  How can so many friendly people work in one location?  That is the sign of a strong manager!!!We will be returning!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Where do I begin....we arrived here on Dec. 19th to stay 1 night before arriving at the Great Wolf Lodge on Dec. 20th.....I booked 3 rooms, all 2 bedroom/2 bathroom suites, to accommodate all 15 of us  (kids and grand kids).....I cannot say enough positive comments about the staff and the hotel(DD, Trey, Janet).....we planned to get up on the 20th, eat a quick breakfast, and be over to the Great Wolf Lodge by 9am.....however, thanks to Marriott, that was delayed....but in the best way ever.  This Marriott had arranged for Santa Claus to be in the lobby early on the morning of the 20th.....and he was one of the best Santas we have ever seen.  All of us, kids and adults, were treated as a "kid"....we were able to get pics with Santa and the kids received one of the best stuffed reindeer we have ever seen given away, very high quality.  This made our day and our Christmas trip even more enjoyable.  I don't want to forget to speak of the high quality breakfast and the service provided by the lady who cooked it all and set it all up....she even sang Happy Birthday to one of my grandsons who did turn 21 on Dec. 20th.....Management took tons of pictures and offered to mail them to me, but I told then I would stop back by on Dec. 21st on our way home from the Great Wold Lodge.....I...Where do I begin....we arrived here on Dec. 19th to stay 1 night before arriving at the Great Wolf Lodge on Dec. 20th.....I booked 3 rooms, all 2 bedroom/2 bathroom suites, to accommodate all 15 of us  (kids and grand kids).....I cannot say enough positive comments about the staff and the hotel(DD, Trey, Janet).....we planned to get up on the 20th, eat a quick breakfast, and be over to the Great Wolf Lodge by 9am.....however, thanks to Marriott, that was delayed....but in the best way ever.  This Marriott had arranged for Santa Claus to be in the lobby early on the morning of the 20th.....and he was one of the best Santas we have ever seen.  All of us, kids and adults, were treated as a "kid"....we were able to get pics with Santa and the kids received one of the best stuffed reindeer we have ever seen given away, very high quality.  This made our day and our Christmas trip even more enjoyable.  I don't want to forget to speak of the high quality breakfast and the service provided by the lady who cooked it all and set it all up....she even sang Happy Birthday to one of my grandsons who did turn 21 on Dec. 20th.....Management took tons of pictures and offered to mail them to me, but I told then I would stop back by on Dec. 21st on our way home from the Great Wold Lodge.....I did and they had some of the best pictures ready for us.  We have stayed at MANY Marriott properties being a Gold Elite member, but none can match the hospitality, kindness, and FUN that this location provided.....Kudos to the mgt. team, cafe service, maintenance team, and housekeeping.  How can so many friendly people work in one location?  That is the sign of a strong manager!!!We will be returning!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r410212556-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>410212556</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>Very nice to have a two bedroom suite for our family of 4.  Teens (boy and girl) do not want to have to share a bed, so this place worked great.  Loved having a kitchen as well, really made the place a home away from home.  Free breakfast was less than ideal, when they ran out of stuff, if it was nearing the end of breakfast time, they would not replace.  Other than that it was all good.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Very nice to have a two bedroom suite for our family of 4.  Teens (boy and girl) do not want to have to share a bed, so this place worked great.  Loved having a kitchen as well, really made the place a home away from home.  Free breakfast was less than ideal, when they ran out of stuff, if it was nearing the end of breakfast time, they would not replace.  Other than that it was all good.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r399988721-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>399988721</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Alex Cintron Baseball Team - Thanks the Awesome Staff!</t>
+  </si>
+  <si>
+    <t>We stayed here due to how accommodating the staff was ready for an entire baseball team around for a week. From check in to check out, the staff was very nice to us. Breakfast was awesome and they even gave them goody snack bags for the last day of the tournament. Food was delicious. Housekeeping was awesome!  We even had a toilet incident, and the manager on duty was ready (wearing a nice suit) with a plunger in his hand to take on the task! Staff was accommodating. Overall, it was a very nice "home away from home". Thank you Marriott Staff! Although, boys will be boys, you understood all of the families and always kept a smile on your faces during our stay. Thanks again for your great hospitality!! I cannot say enough about the staff. A+ for everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here due to how accommodating the staff was ready for an entire baseball team around for a week. From check in to check out, the staff was very nice to us. Breakfast was awesome and they even gave them goody snack bags for the last day of the tournament. Food was delicious. Housekeeping was awesome!  We even had a toilet incident, and the manager on duty was ready (wearing a nice suit) with a plunger in his hand to take on the task! Staff was accommodating. Overall, it was a very nice "home away from home". Thank you Marriott Staff! Although, boys will be boys, you understood all of the families and always kept a smile on your faces during our stay. Thanks again for your great hospitality!! I cannot say enough about the staff. A+ for everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r380929763-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>380929763</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Graduation Weekend June 2016</t>
+  </si>
+  <si>
+    <t>We were in the area for my niece's high school graduation and needed a place to stay - I am a big fan of Marriott's Residence Inn and decided to stay at this hotel - BEST DECISION MADE - THE HOTEL WAS EXCELLENT!  Right off IH 35 - close to Vista Ridge Mall and lots of restaurants - very convenient when traveling with older children!
+My family and I arrived on Saturday afternoon - I checked in via the Marriott mobile app - very nice - when I arrived, my room was ready!  All I had to do was stop at the front desk and pick up my key - very convenient! Staff at front desk was very nice and very pleasant.
+The room was spacious, clean, large bed with comfortable pillows; kitchen - just what we needed - with a microwave, refrigerator - everything that you would need for a kitchen was there.
+All of the employees at this hotel were very friendly and had a smile on their face; a hot complimentary breakfast was served and it very good, but it was even better on Monday morning due to the pleasant face and smile of Ms. Rita!  She made everything just wonderful and was a joy to talk with.
+I was also able to use the Marriott mobile app to check out on Monday - we just packed our luggage, left the key in the room and left...We were in the area for my niece's high school graduation and needed a place to stay - I am a big fan of Marriott's Residence Inn and decided to stay at this hotel - BEST DECISION MADE - THE HOTEL WAS EXCELLENT!  Right off IH 35 - close to Vista Ridge Mall and lots of restaurants - very convenient when traveling with older children!My family and I arrived on Saturday afternoon - I checked in via the Marriott mobile app - very nice - when I arrived, my room was ready!  All I had to do was stop at the front desk and pick up my key - very convenient! Staff at front desk was very nice and very pleasant.The room was spacious, clean, large bed with comfortable pillows; kitchen - just what we needed - with a microwave, refrigerator - everything that you would need for a kitchen was there.All of the employees at this hotel were very friendly and had a smile on their face; a hot complimentary breakfast was served and it very good, but it was even better on Monday morning due to the pleasant face and smile of Ms. Rita!  She made everything just wonderful and was a joy to talk with.I was also able to use the Marriott mobile app to check out on Monday - we just packed our luggage, left the key in the room and left - what a convenience!  My final bill was emailed to me - no need to stop at front desk!My family wanted to take advantage of the hot tub, but there was no water in the hot tub, so they were a little disappointed by that, but all-in-all - everything here at this hotel was A+ and yes - I highly recommend this hotel and will definitely stay here again when I am in the area.JOB WELL DONE MARRIOTT!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>We were in the area for my niece's high school graduation and needed a place to stay - I am a big fan of Marriott's Residence Inn and decided to stay at this hotel - BEST DECISION MADE - THE HOTEL WAS EXCELLENT!  Right off IH 35 - close to Vista Ridge Mall and lots of restaurants - very convenient when traveling with older children!
+My family and I arrived on Saturday afternoon - I checked in via the Marriott mobile app - very nice - when I arrived, my room was ready!  All I had to do was stop at the front desk and pick up my key - very convenient! Staff at front desk was very nice and very pleasant.
+The room was spacious, clean, large bed with comfortable pillows; kitchen - just what we needed - with a microwave, refrigerator - everything that you would need for a kitchen was there.
+All of the employees at this hotel were very friendly and had a smile on their face; a hot complimentary breakfast was served and it very good, but it was even better on Monday morning due to the pleasant face and smile of Ms. Rita!  She made everything just wonderful and was a joy to talk with.
+I was also able to use the Marriott mobile app to check out on Monday - we just packed our luggage, left the key in the room and left...We were in the area for my niece's high school graduation and needed a place to stay - I am a big fan of Marriott's Residence Inn and decided to stay at this hotel - BEST DECISION MADE - THE HOTEL WAS EXCELLENT!  Right off IH 35 - close to Vista Ridge Mall and lots of restaurants - very convenient when traveling with older children!My family and I arrived on Saturday afternoon - I checked in via the Marriott mobile app - very nice - when I arrived, my room was ready!  All I had to do was stop at the front desk and pick up my key - very convenient! Staff at front desk was very nice and very pleasant.The room was spacious, clean, large bed with comfortable pillows; kitchen - just what we needed - with a microwave, refrigerator - everything that you would need for a kitchen was there.All of the employees at this hotel were very friendly and had a smile on their face; a hot complimentary breakfast was served and it very good, but it was even better on Monday morning due to the pleasant face and smile of Ms. Rita!  She made everything just wonderful and was a joy to talk with.I was also able to use the Marriott mobile app to check out on Monday - we just packed our luggage, left the key in the room and left - what a convenience!  My final bill was emailed to me - no need to stop at front desk!My family wanted to take advantage of the hot tub, but there was no water in the hot tub, so they were a little disappointed by that, but all-in-all - everything here at this hotel was A+ and yes - I highly recommend this hotel and will definitely stay here again when I am in the area.JOB WELL DONE MARRIOTT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r367411626-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>367411626</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Incredible customer service</t>
+  </si>
+  <si>
+    <t>So we checked in late, expecting the typical late night check-in. What we got was a friendly welcome, a bottle of water, and plenty of information regarding hotel services and local amenities. That service was repeated often during the stay; the front desk folks are as well-trained and as friendly as any front desk folks I've ever seen.Breakfast impressed me greatly. I mean, it was well prepared, but the food is often well-prepared at nice restaurants. What was awesome was how attentive the staff seemed regarding separation of food. Instead of all together close, the food was spread out, with the breads separated from the egg and sausage to reduce cross-contamination worries for the celiacs like my wife. That was very appreciated. The hotel looks new. Not sure if it is, but I noticed nothing that would make me think it wasn't built last week. Overall, great stay, and I'd highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>So we checked in late, expecting the typical late night check-in. What we got was a friendly welcome, a bottle of water, and plenty of information regarding hotel services and local amenities. That service was repeated often during the stay; the front desk folks are as well-trained and as friendly as any front desk folks I've ever seen.Breakfast impressed me greatly. I mean, it was well prepared, but the food is often well-prepared at nice restaurants. What was awesome was how attentive the staff seemed regarding separation of food. Instead of all together close, the food was spread out, with the breads separated from the egg and sausage to reduce cross-contamination worries for the celiacs like my wife. That was very appreciated. The hotel looks new. Not sure if it is, but I noticed nothing that would make me think it wasn't built last week. Overall, great stay, and I'd highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r364961404-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>364961404</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Great people!</t>
+  </si>
+  <si>
+    <t>Hotel buildings and facilities are much the same.  Branded hotels like Residence stand out individually only when things wrong or when they excel.  The Residence Inn in Lewisville, TX excels because of its people.  They go out of their way to make guests feel welcome.  We just finished up a five night stay and cannot exaggerate how well we were treated.  Having stayed there before, we were not surprised but we felt compelled to publicize it.  They treated our four year old grand daughter like family with small gifts and made the whole process very pleasant.  Also, it should be mentioned that as other Residence Inns cut back on the evening social, these folks have bucked the trend, laying out a nice quality spread.  It makes a difference.  Barbecue night is a treat!The next time we’re in this area, we will consider no other hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam M, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Hotel buildings and facilities are much the same.  Branded hotels like Residence stand out individually only when things wrong or when they excel.  The Residence Inn in Lewisville, TX excels because of its people.  They go out of their way to make guests feel welcome.  We just finished up a five night stay and cannot exaggerate how well we were treated.  Having stayed there before, we were not surprised but we felt compelled to publicize it.  They treated our four year old grand daughter like family with small gifts and made the whole process very pleasant.  Also, it should be mentioned that as other Residence Inns cut back on the evening social, these folks have bucked the trend, laying out a nice quality spread.  It makes a difference.  Barbecue night is a treat!The next time we’re in this area, we will consider no other hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r355748010-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>355748010</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Good Business Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on a business trip to the Lewisville area. The hotel is a little dated and the rooms are a little tired but overall this is a good value hotel for an extended stay. I had one of the single 'suites' which was a large room with kitchenette and seating area. Plenty of room for working and relaxing, with a large and comfortable bed. Bathroom was a little small but shower was good.The hotel serves an American breakfast every day which was of a decent standard. On Monday, Tuesday, and Wednesday evenings there is a variety of free food and drink available in reception.The hotel has a small gym and a swimming pool, neither of which were too busy during my stay. Staff are friendly and helpful.There is a Mall, a Costco, and LA Fitness, and several restaurants within walking distance. There are also snacks and drinks available for purchase at reception.I'd definitely recommend this as a business hotel if you're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on a business trip to the Lewisville area. The hotel is a little dated and the rooms are a little tired but overall this is a good value hotel for an extended stay. I had one of the single 'suites' which was a large room with kitchenette and seating area. Plenty of room for working and relaxing, with a large and comfortable bed. Bathroom was a little small but shower was good.The hotel serves an American breakfast every day which was of a decent standard. On Monday, Tuesday, and Wednesday evenings there is a variety of free food and drink available in reception.The hotel has a small gym and a swimming pool, neither of which were too busy during my stay. Staff are friendly and helpful.There is a Mall, a Costco, and LA Fitness, and several restaurants within walking distance. There are also snacks and drinks available for purchase at reception.I'd definitely recommend this as a business hotel if you're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r329945948-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>329945948</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Poor Stay</t>
+  </si>
+  <si>
+    <t>Booked room for 2 adults and 2 children.  When room was cleaned the cleaning staff took the blanket from our sofa bed.  That night I went to front desk to get a blanket.  I was rudely told there were no blankets and to try turning up the heat.  Hotel was not even full, so a blanket could have easily been taken from another room.  Cold night and no blankets.  I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded December 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2015</t>
+  </si>
+  <si>
+    <t>Booked room for 2 adults and 2 children.  When room was cleaned the cleaning staff took the blanket from our sofa bed.  That night I went to front desk to get a blanket.  I was rudely told there were no blankets and to try turning up the heat.  Hotel was not even full, so a blanket could have easily been taken from another room.  Cold night and no blankets.  I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r326521666-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>326521666</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Generally a clean and decent place to stay.</t>
+  </si>
+  <si>
+    <t>It's in a decent location for us.  It was remodeled a few years back, and so the rooms are rather fresh.  Having the kitchenette is a nice feature.  
+The room we stayed in has a strange flaw where the toilet sits really close to the wall.  (it's really bizarre).  I'm sure the plumbing was set in the slab before that interior wall was placed so they weren't going to move it, but it's an odd experience having toilet paper rolls as an armrest, lol!
+Overall it was nice and clean, except for constant chain trouble spots, like the top of the tub where the surround is caulked to the wall.  The caulking was gross and looked like it was applied without any care, and quite dusty and grimy.  Unfortunately the curse of being tall...You see all these things.
+One thing that was kind-of annoying this trip was that the room didn't have any sheets or bedding/pillows for the pullout bed.  When I asked about the missing sheets they said "it's pretty late, we've given all the extras out."  I hassled them enough that they stole the pull-out bedding package from an un-sold room.  
+Seriously, if you advertise a pull out bed, make sure that housekeeping checks to see that it is actually in the room, and then don't give me a lame excuse as to why you can't provide it.  Wall-mart is open 24 hours, make it happen.  Also our...It's in a decent location for us.  It was remodeled a few years back, and so the rooms are rather fresh.  Having the kitchenette is a nice feature.  The room we stayed in has a strange flaw where the toilet sits really close to the wall.  (it's really bizarre).  I'm sure the plumbing was set in the slab before that interior wall was placed so they weren't going to move it, but it's an odd experience having toilet paper rolls as an armrest, lol!Overall it was nice and clean, except for constant chain trouble spots, like the top of the tub where the surround is caulked to the wall.  The caulking was gross and looked like it was applied without any care, and quite dusty and grimy.  Unfortunately the curse of being tall...You see all these things.One thing that was kind-of annoying this trip was that the room didn't have any sheets or bedding/pillows for the pullout bed.  When I asked about the missing sheets they said "it's pretty late, we've given all the extras out."  I hassled them enough that they stole the pull-out bedding package from an un-sold room.  Seriously, if you advertise a pull out bed, make sure that housekeeping checks to see that it is actually in the room, and then don't give me a lame excuse as to why you can't provide it.  Wall-mart is open 24 hours, make it happen.  Also our request for extra feather pillows wasn't honored.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded November 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2015</t>
+  </si>
+  <si>
+    <t>It's in a decent location for us.  It was remodeled a few years back, and so the rooms are rather fresh.  Having the kitchenette is a nice feature.  
+The room we stayed in has a strange flaw where the toilet sits really close to the wall.  (it's really bizarre).  I'm sure the plumbing was set in the slab before that interior wall was placed so they weren't going to move it, but it's an odd experience having toilet paper rolls as an armrest, lol!
+Overall it was nice and clean, except for constant chain trouble spots, like the top of the tub where the surround is caulked to the wall.  The caulking was gross and looked like it was applied without any care, and quite dusty and grimy.  Unfortunately the curse of being tall...You see all these things.
+One thing that was kind-of annoying this trip was that the room didn't have any sheets or bedding/pillows for the pullout bed.  When I asked about the missing sheets they said "it's pretty late, we've given all the extras out."  I hassled them enough that they stole the pull-out bedding package from an un-sold room.  
+Seriously, if you advertise a pull out bed, make sure that housekeeping checks to see that it is actually in the room, and then don't give me a lame excuse as to why you can't provide it.  Wall-mart is open 24 hours, make it happen.  Also our...It's in a decent location for us.  It was remodeled a few years back, and so the rooms are rather fresh.  Having the kitchenette is a nice feature.  The room we stayed in has a strange flaw where the toilet sits really close to the wall.  (it's really bizarre).  I'm sure the plumbing was set in the slab before that interior wall was placed so they weren't going to move it, but it's an odd experience having toilet paper rolls as an armrest, lol!Overall it was nice and clean, except for constant chain trouble spots, like the top of the tub where the surround is caulked to the wall.  The caulking was gross and looked like it was applied without any care, and quite dusty and grimy.  Unfortunately the curse of being tall...You see all these things.One thing that was kind-of annoying this trip was that the room didn't have any sheets or bedding/pillows for the pullout bed.  When I asked about the missing sheets they said "it's pretty late, we've given all the extras out."  I hassled them enough that they stole the pull-out bedding package from an un-sold room.  Seriously, if you advertise a pull out bed, make sure that housekeeping checks to see that it is actually in the room, and then don't give me a lame excuse as to why you can't provide it.  Wall-mart is open 24 hours, make it happen.  Also our request for extra feather pillows wasn't honored.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r299840430-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>299840430</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Typical RI</t>
+  </si>
+  <si>
+    <t>We stayed here one night while traveling to South Texas. We arrived after dark, and the hotel was easy to get to using GPS even with the road construction on I-35E.  The room was quiet, clean and the AC worked perfectly....really all I need in a hotel.  The hotel DOES have the tiny pillows that a lot of the Marriots have gone to and that drive me a little crazy, but other than that every thing was just peachy.The hotel is right next to a Costco which is always a bonus for shopping and getting gas.  We didn't eat breakfast at the hotel, but it looked like the typical RI breakfast spread.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here one night while traveling to South Texas. We arrived after dark, and the hotel was easy to get to using GPS even with the road construction on I-35E.  The room was quiet, clean and the AC worked perfectly....really all I need in a hotel.  The hotel DOES have the tiny pillows that a lot of the Marriots have gone to and that drive me a little crazy, but other than that every thing was just peachy.The hotel is right next to a Costco which is always a bonus for shopping and getting gas.  We didn't eat breakfast at the hotel, but it looked like the typical RI breakfast spread.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r282187382-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>282187382</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Very Good Experience</t>
+  </si>
+  <si>
+    <t>I was greeted in a friendly manner, by an agent who immediately acknowledged my platinum status with Marriott.I was provided a complimentary upgrade to a 2 bedroom suite.  Each bedroom had its own full bathroom, and there was a full service kitchen/living room between the two bedrooms.On Mondays through Wednesdays, this Residence Inn offers a free breakfast buffet, as well as a complimentary happy hour. The happy hour occurs on Monday, Tuesday, Wednesday each week.The one night I was able to join for happy hour, there was grilled sausage and vegetables, and beer &amp; wine.  The beer was Stella Artois in a bottle (I was expecting a lower end domestic beer on draft, so was pleasantly surprised).There are restaurants in the area, but none are truly walkable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I was greeted in a friendly manner, by an agent who immediately acknowledged my platinum status with Marriott.I was provided a complimentary upgrade to a 2 bedroom suite.  Each bedroom had its own full bathroom, and there was a full service kitchen/living room between the two bedrooms.On Mondays through Wednesdays, this Residence Inn offers a free breakfast buffet, as well as a complimentary happy hour. The happy hour occurs on Monday, Tuesday, Wednesday each week.The one night I was able to join for happy hour, there was grilled sausage and vegetables, and beer &amp; wine.  The beer was Stella Artois in a bottle (I was expecting a lower end domestic beer on draft, so was pleasantly surprised).There are restaurants in the area, but none are truly walkable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r271442086-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>271442086</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>For folks travelling to the Lewisville, TX area, look no further than the Residence Inn on Vista Ridge Mall Drive. Transportation is convenient and rates are competitive. More importantly, the staff is exceptional. As a road warrior who spent many days, weeks and months there – I always valued the management’s and staff’s warm and willing attitude. To be consistently greeted with a smile and inquiries about my needs was always appreciated. As properties go, this is what one should expect from a Residence Inn. The real joy was from the service of Shana, Elizabeth, Kivana and Janet.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r270739896-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>270739896</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Great People</t>
+  </si>
+  <si>
+    <t>The people at this establishment far surpass anything I've ever experienced... from the front counter, to the cooks, and the cleaners. Everyone is there to help you enjoy your stay. I love these people.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r259652897-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>259652897</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>First time and it won't be the last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have never stayed in a Residence Inn before, but I will definitely be considering it as my first choice of hotels. The room prices were very affordable and above average in value. The breakfast options were great.  Very friendly staff greeted and welcomed us each day. The indoor hotel pool and hot tub were well-maintained and a great temperature. There was a "social hour" in the evenings during the week that was nice. The bathrooms were a little small, but completely adequate. The beds were good and I slept well.  We went during spring break and I was surprised how quiet the rooms were. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r241267054-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>241267054</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Extremely Disappointed, Room booked over 6 months ago given away less than week before visit!</t>
+  </si>
+  <si>
+    <t>I have been a very LOYAL Marriott member over the last 15 years. For the last 5 years I have stayed at this hotel in Lewisville the week of Thanksgiving. I always book a 2 bedroom suite to accomodate my family that is traveling from out of state. We really enjoy the 2 bedroom option as it gives us privacy with separate bedrooms but also provides a common living space to gather in the mornings and evenings as a family. This is the entire reason why I chose Residence Inn over another Marriott property for the 2 bedroom option!
+Less than 1 week before my upcoming visit this week I was informed via EMAIL Marriott didn't even have the courtesy to call but sent an email with this description.......We are reaching out to you regarding your reservations. Do to some unexpected stay-overs, we unfortunately will not be able to accommodate your request for a double bed room. However, we are able to accommodate you into two single bedrooms at the price of one. If this does not meet your accommodation needs, we will be more than happy to assist with finding a hotel that can meet your request. 
+I called and spoke to the manager Joe, he was UNABLE to help me book another Residence Inn with a double bedroom option in the DFW vicinity. 
+This has left my family in a major bind during a holiday week where most...I have been a very LOYAL Marriott member over the last 15 years. For the last 5 years I have stayed at this hotel in Lewisville the week of Thanksgiving. I always book a 2 bedroom suite to accomodate my family that is traveling from out of state. We really enjoy the 2 bedroom option as it gives us privacy with separate bedrooms but also provides a common living space to gather in the mornings and evenings as a family. This is the entire reason why I chose Residence Inn over another Marriott property for the 2 bedroom option!Less than 1 week before my upcoming visit this week I was informed via EMAIL Marriott didn't even have the courtesy to call but sent an email with this description.......We are reaching out to you regarding your reservations. Do to some unexpected stay-overs, we unfortunately will not be able to accommodate your request for a double bed room. However, we are able to accommodate you into two single bedrooms at the price of one. If this does not meet your accommodation needs, we will be more than happy to assist with finding a hotel that can meet your request. I called and spoke to the manager Joe, he was UNABLE to help me book another Residence Inn with a double bedroom option in the DFW vicinity. This has left my family in a major bind during a holiday week where most holidays are booked!This experience has left a horrible taste in my mouth for Marriott. This is no way to treat loyal Marriott customers including Marriott Reward Members! Be warned when booking this hotel, even 6 months + out you may find yourself receiving an email less than 1 week before your arrival stating your room is NOT available.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>I have been a very LOYAL Marriott member over the last 15 years. For the last 5 years I have stayed at this hotel in Lewisville the week of Thanksgiving. I always book a 2 bedroom suite to accomodate my family that is traveling from out of state. We really enjoy the 2 bedroom option as it gives us privacy with separate bedrooms but also provides a common living space to gather in the mornings and evenings as a family. This is the entire reason why I chose Residence Inn over another Marriott property for the 2 bedroom option!
+Less than 1 week before my upcoming visit this week I was informed via EMAIL Marriott didn't even have the courtesy to call but sent an email with this description.......We are reaching out to you regarding your reservations. Do to some unexpected stay-overs, we unfortunately will not be able to accommodate your request for a double bed room. However, we are able to accommodate you into two single bedrooms at the price of one. If this does not meet your accommodation needs, we will be more than happy to assist with finding a hotel that can meet your request. 
+I called and spoke to the manager Joe, he was UNABLE to help me book another Residence Inn with a double bedroom option in the DFW vicinity. 
+This has left my family in a major bind during a holiday week where most...I have been a very LOYAL Marriott member over the last 15 years. For the last 5 years I have stayed at this hotel in Lewisville the week of Thanksgiving. I always book a 2 bedroom suite to accomodate my family that is traveling from out of state. We really enjoy the 2 bedroom option as it gives us privacy with separate bedrooms but also provides a common living space to gather in the mornings and evenings as a family. This is the entire reason why I chose Residence Inn over another Marriott property for the 2 bedroom option!Less than 1 week before my upcoming visit this week I was informed via EMAIL Marriott didn't even have the courtesy to call but sent an email with this description.......We are reaching out to you regarding your reservations. Do to some unexpected stay-overs, we unfortunately will not be able to accommodate your request for a double bed room. However, we are able to accommodate you into two single bedrooms at the price of one. If this does not meet your accommodation needs, we will be more than happy to assist with finding a hotel that can meet your request. I called and spoke to the manager Joe, he was UNABLE to help me book another Residence Inn with a double bedroom option in the DFW vicinity. This has left my family in a major bind during a holiday week where most holidays are booked!This experience has left a horrible taste in my mouth for Marriott. This is no way to treat loyal Marriott customers including Marriott Reward Members! Be warned when booking this hotel, even 6 months + out you may find yourself receiving an email less than 1 week before your arrival stating your room is NOT available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r239003925-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>239003925</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>The Residence Inns are never a disappointment.  They are always huge, spacious,  relaxing and just great. The modern ammenities, cleanliness and relaxing atmosphere with pools, business center to easily print things and social events and dinner are great. We always get greeted warmly, service is great and we never really have any complaints. We recently stayed at the Grapevine Gaylord, and I was not thrilled.  I'd prefer the Lewisville Residence Inn any day. I have made this my hotel of choice when staying in Lewisville,  and other locations are also just as excellent. Will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r217446856-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>217446856</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel with Friendly Staff</t>
+  </si>
+  <si>
+    <t>One of the best hotels I've stayed at in Dallas. I was here for a few weeks and had no problems. Every one of the staff were always welcoming. There are complimentary breakfast AND dinner. The dinners were from Monday thru Thursday 5:30-7:30 with a different meal everyday. There were a small salad bar, wine, beer, etc. The best thing for me was having LA fitness right across the hotel. It was in walking distance so I was able to go to my local gym in such a convenient way. Overall, it was such a great stay for me and my family we wouldn't be able to forget!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r204134302-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>204134302</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Great hotel, poor corporate actions</t>
+  </si>
+  <si>
+    <t>I first have to say Joe the manager and the various other staff I had the pleasure interacting with bend over backwards for everyone! I was there for three weeks and saw them treat everyone with care. Marriott gave my room reservation away to someone else when they overbooked. If you can imagine the frustration arriving and being sent elsewhere to a hotel. They did everything they could to make the situation better and I do not blame the hotel for giving my room away. They paid for my night elsewhere, gave me a bottle of wine, and had a six pack of craft beer waiting for me the next day when I actually got back from work. They even gave me an additional credit to my Marriott account. I wish I could remember the name of the black gal who was working every evening when I got back from work.  Does she ever get a day off? She was always so welcoming and cheerful to come "home" to. I hope you give her a raise since she also had to give me the bad news y'all gave my room away. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I first have to say Joe the manager and the various other staff I had the pleasure interacting with bend over backwards for everyone! I was there for three weeks and saw them treat everyone with care. Marriott gave my room reservation away to someone else when they overbooked. If you can imagine the frustration arriving and being sent elsewhere to a hotel. They did everything they could to make the situation better and I do not blame the hotel for giving my room away. They paid for my night elsewhere, gave me a bottle of wine, and had a six pack of craft beer waiting for me the next day when I actually got back from work. They even gave me an additional credit to my Marriott account. I wish I could remember the name of the black gal who was working every evening when I got back from work.  Does she ever get a day off? She was always so welcoming and cheerful to come "home" to. I hope you give her a raise since she also had to give me the bad news y'all gave my room away. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r204045001-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>204045001</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Best Stay in Dallas Yet!</t>
+  </si>
+  <si>
+    <t>Just returned home from our weekend trip to Dallas (Lewisville area), and made sure to come straight to the computer to write this review. We were in town to visit my brother in law to see the new house that they built and I needed to find a place to stay that was close by. I can't say enough about the friendliness of the manager and staff, the cleanliness of the room, the size and amenities of the room/hotel. The (free!)breakfasts choices are great, no need to venture out for breakfast. Although we did not get to participate in the cocktail hour if its anything like breakfast I'm sure its wonderful. There are plenty of places to dine out around the hotel, as well as places to shop. And on check out the manager even gave us a few waters and snacks for our trip home! This will be our new home away from home when we visit my brother in law from now on!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Just returned home from our weekend trip to Dallas (Lewisville area), and made sure to come straight to the computer to write this review. We were in town to visit my brother in law to see the new house that they built and I needed to find a place to stay that was close by. I can't say enough about the friendliness of the manager and staff, the cleanliness of the room, the size and amenities of the room/hotel. The (free!)breakfasts choices are great, no need to venture out for breakfast. Although we did not get to participate in the cocktail hour if its anything like breakfast I'm sure its wonderful. There are plenty of places to dine out around the hotel, as well as places to shop. And on check out the manager even gave us a few waters and snacks for our trip home! This will be our new home away from home when we visit my brother in law from now on!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r200610205-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>200610205</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>Uninvited Guests</t>
+  </si>
+  <si>
+    <t>I've stayed here several times, and have had no major issues until today. It's an older hotel but reasonably clean. 
+We checked in to our room, and as we got settled noticed that there were ants behind and around the nightstand in one room of the suite. About an hour later, there was a knock on the door and I promptly got up to answer; by the time I crossed the room the door was already opening and a young man in a Residence Inn polo shirt (no badge or any attempt to identify himself) walked into the room. I expected a surprised apology and a quick exit, but instead he strode past me and announced "I'm checking the phones, we just got new ones and some need face plates." He walked into one bedroom of the suite, then through the living room, looking at the phones but also quite possibly looking at all of our possessions, and then into the other bedroom where my husband was lying on the bed - and actually leaned over my husband to look at that phone! He said he was going into the hall and then would be right back - and I asked him not to return until after we had checked out the following day. It was just very strange. We promptly booked a room at a different hotel and left.
+We are reasonable people, and not terribly picky when it...I've stayed here several times, and have had no major issues until today. It's an older hotel but reasonably clean. We checked in to our room, and as we got settled noticed that there were ants behind and around the nightstand in one room of the suite. About an hour later, there was a knock on the door and I promptly got up to answer; by the time I crossed the room the door was already opening and a young man in a Residence Inn polo shirt (no badge or any attempt to identify himself) walked into the room. I expected a surprised apology and a quick exit, but instead he strode past me and announced "I'm checking the phones, we just got new ones and some need face plates." He walked into one bedroom of the suite, then through the living room, looking at the phones but also quite possibly looking at all of our possessions, and then into the other bedroom where my husband was lying on the bed - and actually leaned over my husband to look at that phone! He said he was going into the hall and then would be right back - and I asked him not to return until after we had checked out the following day. It was just very strange. We promptly booked a room at a different hotel and left.We are reasonable people, and not terribly picky when it comes to hotels. We hope for clean sheets, a pleasant smell, no insect infestations, and nobody barging into the room unannounced. The entire situation was so uncomfortable that I will absolutely not be staying at this hotel on future trips to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed here several times, and have had no major issues until today. It's an older hotel but reasonably clean. 
+We checked in to our room, and as we got settled noticed that there were ants behind and around the nightstand in one room of the suite. About an hour later, there was a knock on the door and I promptly got up to answer; by the time I crossed the room the door was already opening and a young man in a Residence Inn polo shirt (no badge or any attempt to identify himself) walked into the room. I expected a surprised apology and a quick exit, but instead he strode past me and announced "I'm checking the phones, we just got new ones and some need face plates." He walked into one bedroom of the suite, then through the living room, looking at the phones but also quite possibly looking at all of our possessions, and then into the other bedroom where my husband was lying on the bed - and actually leaned over my husband to look at that phone! He said he was going into the hall and then would be right back - and I asked him not to return until after we had checked out the following day. It was just very strange. We promptly booked a room at a different hotel and left.
+We are reasonable people, and not terribly picky when it...I've stayed here several times, and have had no major issues until today. It's an older hotel but reasonably clean. We checked in to our room, and as we got settled noticed that there were ants behind and around the nightstand in one room of the suite. About an hour later, there was a knock on the door and I promptly got up to answer; by the time I crossed the room the door was already opening and a young man in a Residence Inn polo shirt (no badge or any attempt to identify himself) walked into the room. I expected a surprised apology and a quick exit, but instead he strode past me and announced "I'm checking the phones, we just got new ones and some need face plates." He walked into one bedroom of the suite, then through the living room, looking at the phones but also quite possibly looking at all of our possessions, and then into the other bedroom where my husband was lying on the bed - and actually leaned over my husband to look at that phone! He said he was going into the hall and then would be right back - and I asked him not to return until after we had checked out the following day. It was just very strange. We promptly booked a room at a different hotel and left.We are reasonable people, and not terribly picky when it comes to hotels. We hope for clean sheets, a pleasant smell, no insect infestations, and nobody barging into the room unannounced. The entire situation was so uncomfortable that I will absolutely not be staying at this hotel on future trips to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r200497883-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>200497883</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Emergency Stay</t>
+  </si>
+  <si>
+    <t>Had a great stay at this location. We came home from a weekend trip and our home was flooded so our insurance company made arrangement for our stay at this location. The complete staff was very polite and considerate and never hesitated to acknowledge us as we came in and left the premises.  Our suite was very nice and clean, the bed was very comfortable and the suite was decorated very nicely with all the ammenities of home. Breakfast and the nightly happy hour was a plus too, as we did not have to spend much on eating out. I would recommend this place to anyone and also would let everyone know that these properties provide "room at the inn" hospitatlity during the holidays and people in need of a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a great stay at this location. We came home from a weekend trip and our home was flooded so our insurance company made arrangement for our stay at this location. The complete staff was very polite and considerate and never hesitated to acknowledge us as we came in and left the premises.  Our suite was very nice and clean, the bed was very comfortable and the suite was decorated very nicely with all the ammenities of home. Breakfast and the nightly happy hour was a plus too, as we did not have to spend much on eating out. I would recommend this place to anyone and also would let everyone know that these properties provide "room at the inn" hospitatlity during the holidays and people in need of a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r199579109-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>199579109</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!!!!!!</t>
+  </si>
+  <si>
+    <t>We were in Dallas , Tx for Spring Break for a basketball tournament . From the moment we stepped in the door we were greeted by front desk agent Jasmine. Her warm smile and kind efficient checkin  was exceptional. I noticed that entire staff were very friendly and offer additional service. The next morning I was able to come in contact with the GM Ms. Brittany Wade. I was very impressed that my son asked for a basketball and she immediately dropped what she was doing and gave it to him. My son told me she was very engaged with him by talking to him about  basketball.  Not only did that make me and his dad happy but Janoel  said she allowed me to express my love for basketball. We will definitely recommend Residence Inn in Lewisville to our family and friends. And this is our new home when we come back to the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We were in Dallas , Tx for Spring Break for a basketball tournament . From the moment we stepped in the door we were greeted by front desk agent Jasmine. Her warm smile and kind efficient checkin  was exceptional. I noticed that entire staff were very friendly and offer additional service. The next morning I was able to come in contact with the GM Ms. Brittany Wade. I was very impressed that my son asked for a basketball and she immediately dropped what she was doing and gave it to him. My son told me she was very engaged with him by talking to him about  basketball.  Not only did that make me and his dad happy but Janoel  said she allowed me to express my love for basketball. We will definitely recommend Residence Inn in Lewisville to our family and friends. And this is our new home when we come back to the Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r185500711-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>185500711</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Excellent Place to Stay</t>
+  </si>
+  <si>
+    <t>I always stay at this location when I am in the Dallas area because they are the friendliest place i have stayed at in the 15 years that i have traveled to Dallas. I have stayed at numerous locations before finding this hotel. Just an example, my recent stay, Tavia took care of my room and left me a personal hand written note hoping that I have a good day. This personal touch is what keep me coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>I always stay at this location when I am in the Dallas area because they are the friendliest place i have stayed at in the 15 years that i have traveled to Dallas. I have stayed at numerous locations before finding this hotel. Just an example, my recent stay, Tavia took care of my room and left me a personal hand written note hoping that I have a good day. This personal touch is what keep me coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r185354009-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>185354009</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>A Great Place To Stay</t>
+  </si>
+  <si>
+    <t>I am wrapping my last night of another stay in Residence Inn. This time I stayed at the location in Lewisville, Tx. for 14 days (11/7 thru 11/21). I had the pleasure of meeting several awesome staff members. The first person I met was Christa Olesen. She checked me in and, with a lot of patients, made some needed chances to my reservation. Every staff member I met from check-in until now have been very pleasant and social. My room is very nice, clean and well stocked. The hotel is current in style and design. The colors are beautiful. It has a small, but full kitchen in an open floor plan. It has all the amenities of home minus the oven. Two ladies from housekeeping (Jessica Taylor and Evelyn Bolta) keep my room in top condition every day. Ladonna had breakfast nicely prepared and laid out each morning. If you see her, ask her about her arm. She is having a little trouble with it. It would really make her feel good knowing someone cares. I also met Sal. He works the front desk and is very friendly. He usually had a claim, take care of the guess kind of presents. I don't want to forget Julia. She prepares dinner in the evenings. My first night she made an amazing potato and bacon soup. It's worth the stay alone. I didn't meet the manager (Brittany Wade) until late in my...I am wrapping my last night of another stay in Residence Inn. This time I stayed at the location in Lewisville, Tx. for 14 days (11/7 thru 11/21). I had the pleasure of meeting several awesome staff members. The first person I met was Christa Olesen. She checked me in and, with a lot of patients, made some needed chances to my reservation. Every staff member I met from check-in until now have been very pleasant and social. My room is very nice, clean and well stocked. The hotel is current in style and design. The colors are beautiful. It has a small, but full kitchen in an open floor plan. It has all the amenities of home minus the oven. Two ladies from housekeeping (Jessica Taylor and Evelyn Bolta) keep my room in top condition every day. Ladonna had breakfast nicely prepared and laid out each morning. If you see her, ask her about her arm. She is having a little trouble with it. It would really make her feel good knowing someone cares. I also met Sal. He works the front desk and is very friendly. He usually had a claim, take care of the guess kind of presents. I don't want to forget Julia. She prepares dinner in the evenings. My first night she made an amazing potato and bacon soup. It's worth the stay alone. I didn't meet the manager (Brittany Wade) until late in my stay. She just as all of her staff, was very friendly and extremely easy to talk with. Joe and Darnel are two staffers I saw in passing. Their smiles keep the hotel warm and pleasant. In all, I would say this location really has it together. The staff, the location and the price point are all in sync. I would highly recommend this location for both short-term and long-term stays.  FYI --- Christa Olesen is both pretty and SMART!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am wrapping my last night of another stay in Residence Inn. This time I stayed at the location in Lewisville, Tx. for 14 days (11/7 thru 11/21). I had the pleasure of meeting several awesome staff members. The first person I met was Christa Olesen. She checked me in and, with a lot of patients, made some needed chances to my reservation. Every staff member I met from check-in until now have been very pleasant and social. My room is very nice, clean and well stocked. The hotel is current in style and design. The colors are beautiful. It has a small, but full kitchen in an open floor plan. It has all the amenities of home minus the oven. Two ladies from housekeeping (Jessica Taylor and Evelyn Bolta) keep my room in top condition every day. Ladonna had breakfast nicely prepared and laid out each morning. If you see her, ask her about her arm. She is having a little trouble with it. It would really make her feel good knowing someone cares. I also met Sal. He works the front desk and is very friendly. He usually had a claim, take care of the guess kind of presents. I don't want to forget Julia. She prepares dinner in the evenings. My first night she made an amazing potato and bacon soup. It's worth the stay alone. I didn't meet the manager (Brittany Wade) until late in my...I am wrapping my last night of another stay in Residence Inn. This time I stayed at the location in Lewisville, Tx. for 14 days (11/7 thru 11/21). I had the pleasure of meeting several awesome staff members. The first person I met was Christa Olesen. She checked me in and, with a lot of patients, made some needed chances to my reservation. Every staff member I met from check-in until now have been very pleasant and social. My room is very nice, clean and well stocked. The hotel is current in style and design. The colors are beautiful. It has a small, but full kitchen in an open floor plan. It has all the amenities of home minus the oven. Two ladies from housekeeping (Jessica Taylor and Evelyn Bolta) keep my room in top condition every day. Ladonna had breakfast nicely prepared and laid out each morning. If you see her, ask her about her arm. She is having a little trouble with it. It would really make her feel good knowing someone cares. I also met Sal. He works the front desk and is very friendly. He usually had a claim, take care of the guess kind of presents. I don't want to forget Julia. She prepares dinner in the evenings. My first night she made an amazing potato and bacon soup. It's worth the stay alone. I didn't meet the manager (Brittany Wade) until late in my stay. She just as all of her staff, was very friendly and extremely easy to talk with. Joe and Darnel are two staffers I saw in passing. Their smiles keep the hotel warm and pleasant. In all, I would say this location really has it together. The staff, the location and the price point are all in sync. I would highly recommend this location for both short-term and long-term stays.  FYI --- Christa Olesen is both pretty and SMART!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r179994339-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>179994339</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>weekend wedding</t>
+  </si>
+  <si>
+    <t>Was here over the weekend of Oct 5-6th with my family for a wedding. I live in Oak Cliff and was not wanting to drive back and forth to pick-up family and then the rain came hard on Saturday.Don at the desk was very helpful in helping me with my parents with the rain outside and the luggage and 2 small children. Then the desk manager Joe went out of his way to help me with my dad in his wheel chair, went up to the room to make sure temp in room was comfortable for my parents that where cold due to rain and started coffee in room for them. Extra blankets where brought up to the room and pillows. when I asked why Mr. Joe stated that the room. had a sleeper sofa so we can stay the night and avoid driving in the rain. We where invited to the breakfast in the morning, all 5 of us, complimentary. Both Joe and Don made me and my family feel very welcomed. Room was nice, breakfast very good. Was happy to see both Don and Joe in the morning, again being friendly. Went to wedding and told everyone how lovely the hotel was and how friendly everyone is there. wowMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Was here over the weekend of Oct 5-6th with my family for a wedding. I live in Oak Cliff and was not wanting to drive back and forth to pick-up family and then the rain came hard on Saturday.Don at the desk was very helpful in helping me with my parents with the rain outside and the luggage and 2 small children. Then the desk manager Joe went out of his way to help me with my dad in his wheel chair, went up to the room to make sure temp in room was comfortable for my parents that where cold due to rain and started coffee in room for them. Extra blankets where brought up to the room and pillows. when I asked why Mr. Joe stated that the room. had a sleeper sofa so we can stay the night and avoid driving in the rain. We where invited to the breakfast in the morning, all 5 of us, complimentary. Both Joe and Don made me and my family feel very welcomed. Room was nice, breakfast very good. Was happy to see both Don and Joe in the morning, again being friendly. Went to wedding and told everyone how lovely the hotel was and how friendly everyone is there. wowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r170490651-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>170490651</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Standard Residence Inn - Comparitively Over Priced</t>
+  </si>
+  <si>
+    <t>Stayed her for 9 days in June. The hotel is a standard Residence Inn Hotel with very small breakfast area and no lobby. The rooms are standard. Breakfast is OK. I move to Towne Place Suites on the 10th day after I figured that they have similar facilities for almost 30% lesser on price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Stayed her for 9 days in June. The hotel is a standard Residence Inn Hotel with very small breakfast area and no lobby. The rooms are standard. Breakfast is OK. I move to Towne Place Suites on the 10th day after I figured that they have similar facilities for almost 30% lesser on price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r169301343-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>169301343</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Time with the grandkids</t>
+  </si>
+  <si>
+    <t>We met our grandsons in the Dallas area and stayed at this location.  We had stayed there before and knew of its proximity to many of the things we had planned.  We rented a two bedroom and it provided ample space for everyone.  The kitchen was functional and we were able to do several meals in the room.  The breakfast is pretty standard for a Residence Inn.  We were there for two nights of the evening reception.  The first night was very disappointing, but the second was much improved.  The first night we had corn dogs that were burned on one side along with pizza bites.  The best part of this hotel is the staff.  We never found anyone that didn't have a smile and great willingness to help.  I can't remember a hotel where everyone provided this kind of service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We met our grandsons in the Dallas area and stayed at this location.  We had stayed there before and knew of its proximity to many of the things we had planned.  We rented a two bedroom and it provided ample space for everyone.  The kitchen was functional and we were able to do several meals in the room.  The breakfast is pretty standard for a Residence Inn.  We were there for two nights of the evening reception.  The first night was very disappointing, but the second was much improved.  The first night we had corn dogs that were burned on one side along with pizza bites.  The best part of this hotel is the staff.  We never found anyone that didn't have a smile and great willingness to help.  I can't remember a hotel where everyone provided this kind of service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r166931603-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>166931603</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service/Health Issues</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a week.  We had numerous problems with the air conditiioner leaking in our room.  The floor was constantly wet and there was mold growing on the floor.  By the time we left, we were all feeling sick.  We had told them about the leak, they came the next day to change the air filter.  Then realized the floor was wet and said they would bring in some fans, that never happened until the day before we left.  Actually, that is when the a/c repair man came to repair our a/c that was leaking.  We stayed there with mulitple families and others had some of the same complaints as well as the rotten egg smell as well.  On another note, our toilet kept stopping up and we weren't able to get anyone to unclog it, finally, they gave us a plunger and told us to do it ourselves.  I thought the Residence Inn with the Marriot name would be a nice hotel, however, I felt like this was a total waste of money!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Dallas Lewisville, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a week.  We had numerous problems with the air conditiioner leaking in our room.  The floor was constantly wet and there was mold growing on the floor.  By the time we left, we were all feeling sick.  We had told them about the leak, they came the next day to change the air filter.  Then realized the floor was wet and said they would bring in some fans, that never happened until the day before we left.  Actually, that is when the a/c repair man came to repair our a/c that was leaking.  We stayed there with mulitple families and others had some of the same complaints as well as the rotten egg smell as well.  On another note, our toilet kept stopping up and we weren't able to get anyone to unclog it, finally, they gave us a plunger and told us to do it ourselves.  I thought the Residence Inn with the Marriot name would be a nice hotel, however, I felt like this was a total waste of money!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r155623222-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>155623222</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Next best thing to being home!</t>
+  </si>
+  <si>
+    <t>In the twelve months, I have spent almost over 50 nights at this hotel.  I kept coming back because the hotel staff were always friendly and helpful, no matter the need.  The hotel is clean and the location is convenient to shopping, eating and other activity.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r155519546-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>155519546</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay for large families.</t>
+  </si>
+  <si>
+    <t>This is the only hotel in the area I could find that offers two bedroom suites with a king bed in each bedroom.  Each bedroom has a full size bathroom which was very helpful.  The couch pulls out to a full size bed.  There were six of us in the room and it was very comfortable.  They offer dinner Monday-Thursday.  The night we were there they were serving chicken strips, mashed potatoes and biscuits.  We didn't eat dinner but we saw several families eating there.  Very nice place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r154580721-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>154580721</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>best hotel to stay in</t>
+  </si>
+  <si>
+    <t>The hotel has been just renovated, so it is in great shape, the front desk staff in wonderful, they even have dinner on mon-thurs,, thats amazing,! i stayed with them during a weekend with my friends, fresh coffee 24 hours,  and they took care of us with all our needs, great food, great staff, great suites... keep it up!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r148149714-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>148149714</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I completed a three day stay at this hotel.  It was a great experience.  The hotel staff was very friendly and concerned about my well being during my time with them.  Renovations was completed recently the room and the foyer of the hotel was modern and beautiful.  Housekeeping excellent, even exercise room and pool area very clean.  I will return in the future.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r147876257-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>147876257</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>love the new renovations</t>
+  </si>
+  <si>
+    <t>the residence inn in lewisville is my new favorite place to stay, i am on the road a lot for my job and the staff of this hotel really makes me feel like i"m at home, especially bill and neil who made sure i had the best, softest cookies as soon as i walked in the door. the manager abigail took special care of me by ensuring my room was feather free and relentlessly searching for a restaurant that caters to vegans. i swear i even saw the maintenance man cleaning rooms, which doesn't happen vary often. do your self a favor and stay at the residence inn in lewisville!MoreShow less</t>
+  </si>
+  <si>
+    <t>the residence inn in lewisville is my new favorite place to stay, i am on the road a lot for my job and the staff of this hotel really makes me feel like i"m at home, especially bill and neil who made sure i had the best, softest cookies as soon as i walked in the door. the manager abigail took special care of me by ensuring my room was feather free and relentlessly searching for a restaurant that caters to vegans. i swear i even saw the maintenance man cleaning rooms, which doesn't happen vary often. do your self a favor and stay at the residence inn in lewisville!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r147008764-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>147008764</t>
+  </si>
+  <si>
+    <t>12/08/2012</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>I am guessing that the renovations are done as our room was modern and beautiful.  Housekeeping excellent, even exercise room and pool area very clean.  Breakfast was simole but good and the evening managers social had very good food. Exceptional lasagna, yummy.Very nice stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r144009335-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>144009335</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Very nice Property in Lewisville</t>
+  </si>
+  <si>
+    <t>I travel to Dallas often but typically stay at the Full Service Marriotts closer to the airport.  This past week all of those hotels were sold out so I decided to stay at the Residence Inn in Lewisville, which I was very happy with.  The service was great from beginning to end and the rooms were beautiful (Looked like they were just remodeled).  The lobby had a great atmosphere in the evening for a little Happy Hour and in the morning for a very nice spread of breakfast foods.  Very close to shopping and many other restaurants.  Also a great price compared to some of the other high end Marriott locations.Tom W - PennsylvaniaMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I travel to Dallas often but typically stay at the Full Service Marriotts closer to the airport.  This past week all of those hotels were sold out so I decided to stay at the Residence Inn in Lewisville, which I was very happy with.  The service was great from beginning to end and the rooms were beautiful (Looked like they were just remodeled).  The lobby had a great atmosphere in the evening for a little Happy Hour and in the morning for a very nice spread of breakfast foods.  Very close to shopping and many other restaurants.  Also a great price compared to some of the other high end Marriott locations.Tom W - PennsylvaniaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r143615688-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>143615688</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Happiness is feeling first class</t>
+  </si>
+  <si>
+    <t>When your planning a wedding and looking for a place to stay where it does not cost an arm and leg, look at this beautiful hotel among all the rest in the northern Dallas (Lewisville) Texas area. It is in a great location. Many nice quality restaurants and the Vista Ridge Mall are within close walking distance for food and shopping. Renovations are complete. If your looking for a getaway, this is the place to come. The breakfast area is great including the food. Bring a swim suit because the indoor swimming pool and hot tub are to relax. The rooms are Texas size and very comfortable. This is a great place for weekend family get togethers or a perfect business hotel to northern Dallas. There are quiet places inside your room or outside on a patio. Check it out, then, check in. BTW it's 40 minutes from downtown Dallas (not rush hour).MoreShow less</t>
+  </si>
+  <si>
+    <t>When your planning a wedding and looking for a place to stay where it does not cost an arm and leg, look at this beautiful hotel among all the rest in the northern Dallas (Lewisville) Texas area. It is in a great location. Many nice quality restaurants and the Vista Ridge Mall are within close walking distance for food and shopping. Renovations are complete. If your looking for a getaway, this is the place to come. The breakfast area is great including the food. Bring a swim suit because the indoor swimming pool and hot tub are to relax. The rooms are Texas size and very comfortable. This is a great place for weekend family get togethers or a perfect business hotel to northern Dallas. There are quiet places inside your room or outside on a patio. Check it out, then, check in. BTW it's 40 minutes from downtown Dallas (not rush hour).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r140725512-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>140725512</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Great for business travel</t>
+  </si>
+  <si>
+    <t>I was assinged to attend 7 days of business training in Texas beginning the week after Thanksgiving.  This was a very pleasant stay. At the time I stayed, one wing of the hotel was closed due to remodeling, so they are investing in updating the rooms. Breakfasts were great. It was close to restaurants and Costco.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r134512161-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>134512161</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>I'm happy to deal with the renovation mess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really enjoyed my stay here and have booked  another 5 weeks here. The staff has been so friendly and made my stay so comfortable that it feels like a home away from home. The renovations are looking good and can't wait to see the finished look. Its easy access to just about averything including the mall. I highly reccomend this hotel! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r132948415-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>132948415</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Definitely home away from home!!!!</t>
+  </si>
+  <si>
+    <t>We had stayed here 4 years ago and really liked it, but they've recently undergone a major remodeling and it's even better!  We were hooked the minute we walked into our room!!  The new furnishings and carpet make it a beautiful place!!  Spending time in our suite felt like being at home rather than being in a hotel.  The front desk staff were always friendly and greeted you as you were coming or going.  The 24/7 coffee/tea bar was a plus, as were the fresh cookies on the front counter.  My husband and kids loved the indoor pool.  We will definitely be staying here again and will recommend it to anyone needing a hotel in the Lewisville area!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We had stayed here 4 years ago and really liked it, but they've recently undergone a major remodeling and it's even better!  We were hooked the minute we walked into our room!!  The new furnishings and carpet make it a beautiful place!!  Spending time in our suite felt like being at home rather than being in a hotel.  The front desk staff were always friendly and greeted you as you were coming or going.  The 24/7 coffee/tea bar was a plus, as were the fresh cookies on the front counter.  My husband and kids loved the indoor pool.  We will definitely be staying here again and will recommend it to anyone needing a hotel in the Lewisville area!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r132604721-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>132604721</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Great room and helpful staff</t>
+  </si>
+  <si>
+    <t>This is a very nice property with a well trained and friendly staff.  I have stayed here several times and have always been greeted with a welcoming smile.Nice, newly renovated rooms and a roomy breakfast area with both hot and cold food offered.The indoor pool is a favorite of my grandchildren.It is convenient to the Vista Ridge Mall and countless restaurants in the area.This is at the top of my list when in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r130963522-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>130963522</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Best customer service at a hotel!</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful, very modern and updated with all the amenities, but what makes this hotel so great is the staff.  Every single employee we have come in contact with knows the true meaning of providing amazing customer service.  They go out of their way to assist you and make you feel like this is truly your home away from home.  We will be here for about a month due to a flood in our home ~ they have turned a very stressful situation into a pleasant one. From the front desk personnel to the kitchen staff to the wonderful ladies that clean our rooms,  I can't recommend this hotel enough ~ they know the true meaning of customer service.   Thank you!Tammy Maxwell and Family, Coppell, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful, very modern and updated with all the amenities, but what makes this hotel so great is the staff.  Every single employee we have come in contact with knows the true meaning of providing amazing customer service.  They go out of their way to assist you and make you feel like this is truly your home away from home.  We will be here for about a month due to a flood in our home ~ they have turned a very stressful situation into a pleasant one. From the front desk personnel to the kitchen staff to the wonderful ladies that clean our rooms,  I can't recommend this hotel enough ~ they know the true meaning of customer service.   Thank you!Tammy Maxwell and Family, Coppell, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r126716976-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>126716976</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Great remodel</t>
+  </si>
+  <si>
+    <t>They are currently doing a total remodel it looks great huge change. The manager and staff super helpful</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r125375423-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>125375423</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Older but clean</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights while visiting a friend.  The place is older but in a nice neighborhood next to a large shopping mall and there are lots of good restaurants close by.  The kitchen had everything we needed though we did not eat in much.  Breakfasts were decent and staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Michelle G, Director of Sales at Residence Inn Dallas Lewisville, responded to this reviewResponded March 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights while visiting a friend.  The place is older but in a nice neighborhood next to a large shopping mall and there are lots of good restaurants close by.  The kitchen had everything we needed though we did not eat in much.  Breakfasts were decent and staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r122066107-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>122066107</t>
+  </si>
+  <si>
+    <t>12/24/2011</t>
+  </si>
+  <si>
+    <t>Good location but overdue for a renovation.</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times while visiting family in North Dallas.  While the location is convenient and the hotel historically has been great to stay at, it is showing its age.  There are a number of hotels that have opened right around this location that are newer, around the same price point, and with similar amenities.  They appear to have started to rennovate the hotel so perhaps things will improve over the next several months.  Not a bad place, but there are a number of other options in the area I would look at as well.  Overall pretty clean.  Breakfast offering leaves a bit to be desired.  Staff is OK, although a bit disengaged.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times while visiting family in North Dallas.  While the location is convenient and the hotel historically has been great to stay at, it is showing its age.  There are a number of hotels that have opened right around this location that are newer, around the same price point, and with similar amenities.  They appear to have started to rennovate the hotel so perhaps things will improve over the next several months.  Not a bad place, but there are a number of other options in the area I would look at as well.  Overall pretty clean.  Breakfast offering leaves a bit to be desired.  Staff is OK, although a bit disengaged.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r118252065-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>118252065</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Great location. Everything you can expect from Residence Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room was quite large with King Bed, kitchen complete with dishes, sofa, desk area. There is laundry area and they will pick up groceries if you leave a list in the morning. The location is great, walking distance to restaurants and the mall. Super Target a few blocks away. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r116778996-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>116778996</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Not worthy of being called a Marriott hotel</t>
+  </si>
+  <si>
+    <t>Nothing about this hotel is updated or reminded me of any Residence Inn I've stayed in before.  The front desk and rooms are in desperate need of a renovation or update. The carpet in the hallways is torn and rooms even worse with stains.  During our stay the maintenance man knocked on our door and said he needed to get into a closet cause there was a leak in the room below. We asked him to come back later but to call us first, he did not.  We left for the day  and when we came back there was a note written on a piece of paper stating why he was in our room.  Yes, written on a piece of paper.  On the second night our A/C stopped cooling and front desk guest guy, Neil said he could not help us but to call the GM in the morning.  Really? I could not believe he said this and we decided to leave the next morning.  Before checking out I called the front desk to speak to the GM around 9am and was told he was not in yet and they did not know when he would be in.  Why wouldn't they just offer his voice mail to me?  Oh they did and said he rarely checks his voice mail....  When we were checking out we heard another guest at the front desk talking to the police about their car getting...Nothing about this hotel is updated or reminded me of any Residence Inn I've stayed in before.  The front desk and rooms are in desperate need of a renovation or update. The carpet in the hallways is torn and rooms even worse with stains.  During our stay the maintenance man knocked on our door and said he needed to get into a closet cause there was a leak in the room below. We asked him to come back later but to call us first, he did not.  We left for the day  and when we came back there was a note written on a piece of paper stating why he was in our room.  Yes, written on a piece of paper.  On the second night our A/C stopped cooling and front desk guest guy, Neil said he could not help us but to call the GM in the morning.  Really? I could not believe he said this and we decided to leave the next morning.  Before checking out I called the front desk to speak to the GM around 9am and was told he was not in yet and they did not know when he would be in.  Why wouldn't they just offer his voice mail to me?  Oh they did and said he rarely checks his voice mail....  When we were checking out we heard another guest at the front desk talking to the police about their car getting broken into the night before.  Where was security???  The last straw was when we went to have breakfast and the older white breakfast lady told us breakfast was over and we could take something to go from what was leftover.  I have never had this experience at a Residence Inn and hope to never again.  WE WILL NEVER stay at this hotel again.  Where was the GM and why does he not check his voice mail.  The staff did not even seem like they knew where he was.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Nothing about this hotel is updated or reminded me of any Residence Inn I've stayed in before.  The front desk and rooms are in desperate need of a renovation or update. The carpet in the hallways is torn and rooms even worse with stains.  During our stay the maintenance man knocked on our door and said he needed to get into a closet cause there was a leak in the room below. We asked him to come back later but to call us first, he did not.  We left for the day  and when we came back there was a note written on a piece of paper stating why he was in our room.  Yes, written on a piece of paper.  On the second night our A/C stopped cooling and front desk guest guy, Neil said he could not help us but to call the GM in the morning.  Really? I could not believe he said this and we decided to leave the next morning.  Before checking out I called the front desk to speak to the GM around 9am and was told he was not in yet and they did not know when he would be in.  Why wouldn't they just offer his voice mail to me?  Oh they did and said he rarely checks his voice mail....  When we were checking out we heard another guest at the front desk talking to the police about their car getting...Nothing about this hotel is updated or reminded me of any Residence Inn I've stayed in before.  The front desk and rooms are in desperate need of a renovation or update. The carpet in the hallways is torn and rooms even worse with stains.  During our stay the maintenance man knocked on our door and said he needed to get into a closet cause there was a leak in the room below. We asked him to come back later but to call us first, he did not.  We left for the day  and when we came back there was a note written on a piece of paper stating why he was in our room.  Yes, written on a piece of paper.  On the second night our A/C stopped cooling and front desk guest guy, Neil said he could not help us but to call the GM in the morning.  Really? I could not believe he said this and we decided to leave the next morning.  Before checking out I called the front desk to speak to the GM around 9am and was told he was not in yet and they did not know when he would be in.  Why wouldn't they just offer his voice mail to me?  Oh they did and said he rarely checks his voice mail....  When we were checking out we heard another guest at the front desk talking to the police about their car getting broken into the night before.  Where was security???  The last straw was when we went to have breakfast and the older white breakfast lady told us breakfast was over and we could take something to go from what was leftover.  I have never had this experience at a Residence Inn and hope to never again.  WE WILL NEVER stay at this hotel again.  Where was the GM and why does he not check his voice mail.  The staff did not even seem like they knew where he was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r106576612-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>106576612</t>
+  </si>
+  <si>
+    <t>05/02/2011</t>
+  </si>
+  <si>
+    <t>Top Notch Stay!</t>
+  </si>
+  <si>
+    <t>We are regular patrons of all Residence Inn by Marriott for several reasons.  Their one bedroom suites fit our family of 4 perfectly.  We (the parents) take over the bedroom with TV while our two kids get the pull-out sofa sleeper in the living room with their own TV.  Everyone is happy.  We arrived at 7:30pm after driving for 15 hours.  We got our keys and the Assistant Manager, Marcus, informed us that he would have the kitchen staff keep the reception area open so our family could eat the brats and potatoes that were grilled that night.  This was HUGE for us since the closing time was actually 7pm.  Thanks Marcus!!We all had a much needed and restful night sleep.  In the morning, we ate their buffet breakfast.  We always look forward to this breakfast as it keeps our family full until late in the afternoon and we don't have to go out and look for food first thing in the am.We give this Residence Inn 5 stars and when we happen through the north Dallas/Fort Worth area, we will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We are regular patrons of all Residence Inn by Marriott for several reasons.  Their one bedroom suites fit our family of 4 perfectly.  We (the parents) take over the bedroom with TV while our two kids get the pull-out sofa sleeper in the living room with their own TV.  Everyone is happy.  We arrived at 7:30pm after driving for 15 hours.  We got our keys and the Assistant Manager, Marcus, informed us that he would have the kitchen staff keep the reception area open so our family could eat the brats and potatoes that were grilled that night.  This was HUGE for us since the closing time was actually 7pm.  Thanks Marcus!!We all had a much needed and restful night sleep.  In the morning, we ate their buffet breakfast.  We always look forward to this breakfast as it keeps our family full until late in the afternoon and we don't have to go out and look for food first thing in the am.We give this Residence Inn 5 stars and when we happen through the north Dallas/Fort Worth area, we will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r97762711-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>97762711</t>
+  </si>
+  <si>
+    <t>02/23/2011</t>
+  </si>
+  <si>
+    <t>Super friendly staff</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel and well priced at that. The man checking us in was very professional and friendly. In fact everyone on staff was nice and polite-always saying hello to us when we walked by the front desk. We had a 1 bedroom suite which at 80 dollars a night was an excellent value. The bed was comfortable, and the room very clean. Breakfast was quite good-and the staff was always working very hard keeping the food well stocked. One time we saw only one woman stocking and cooking the food-she was really working very hard. The indoor pool was nice-hot tub was not very warm however. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel and well priced at that. The man checking us in was very professional and friendly. In fact everyone on staff was nice and polite-always saying hello to us when we walked by the front desk. We had a 1 bedroom suite which at 80 dollars a night was an excellent value. The bed was comfortable, and the room very clean. Breakfast was quite good-and the staff was always working very hard keeping the food well stocked. One time we saw only one woman stocking and cooking the food-she was really working very hard. The indoor pool was nice-hot tub was not very warm however. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r97049986-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>97049986</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>Blown away...what a value!"</t>
+  </si>
+  <si>
+    <t>I wanted to give this place a perfect score, except for the broken air conditioner. The manager said they were doing some emergency repairs on it. We enjoyed the choice of feather or foam pillows. Children enjoyed having 3 TVs. Staff pleasant and helpful. Pool clean, could have been just a tad warmer, but no biggie. Hot tub clean and ahhhhhhhh, just right. Nice work out room. Our room :  with two separate bedrooms, living room with fireplace and full kitchen. We could have lived here. Breakfast was good. I took it back to the room while everyone slept. Kept it all in the fridge until they were ready to eat.Then after a nice morning swim it was heat and eat time on real dishes. So nice to sit together at the table in our quiet room and enjoy each others company before getting back on the road.  We were very pleased and will stay again. I feel certain the concierge tells the truth about actively working on the air conditioning system.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wanted to give this place a perfect score, except for the broken air conditioner. The manager said they were doing some emergency repairs on it. We enjoyed the choice of feather or foam pillows. Children enjoyed having 3 TVs. Staff pleasant and helpful. Pool clean, could have been just a tad warmer, but no biggie. Hot tub clean and ahhhhhhhh, just right. Nice work out room. Our room :  with two separate bedrooms, living room with fireplace and full kitchen. We could have lived here. Breakfast was good. I took it back to the room while everyone slept. Kept it all in the fridge until they were ready to eat.Then after a nice morning swim it was heat and eat time on real dishes. So nice to sit together at the table in our quiet room and enjoy each others company before getting back on the road.  We were very pleased and will stay again. I feel certain the concierge tells the truth about actively working on the air conditioning system.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r68368572-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>68368572</t>
+  </si>
+  <si>
+    <t>06/22/2010</t>
+  </si>
+  <si>
+    <t>Near DFW, clean, comfortable, and friendly</t>
+  </si>
+  <si>
+    <t>Stayed here just for night over a weekend.    The checkin was very friendly and helpful as I arrived at the wrong RI, but decided to stay.The place is in good condition, comfortable and roomy.     CRT type TVs, with a good selection of channels, including multiple HBOs.  The internet access was good and free.There was noise from the hallwasy &amp; the next room at times (loud voices, bumbs on the wall...  but not sure if this was the construction or just noisy people.The included hot &amp; cold breakfast buffet was good, including a pot of real oatmeal.  The breakfast room is a bit small, so I can see it being a problem during the busier week day mornings.A very good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Stayed here just for night over a weekend.    The checkin was very friendly and helpful as I arrived at the wrong RI, but decided to stay.The place is in good condition, comfortable and roomy.     CRT type TVs, with a good selection of channels, including multiple HBOs.  The internet access was good and free.There was noise from the hallwasy &amp; the next room at times (loud voices, bumbs on the wall...  but not sure if this was the construction or just noisy people.The included hot &amp; cold breakfast buffet was good, including a pot of real oatmeal.  The breakfast room is a bit small, so I can see it being a problem during the busier week day mornings.A very good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r54238913-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>54238913</t>
+  </si>
+  <si>
+    <t>01/24/2010</t>
+  </si>
+  <si>
+    <t>Great vaule!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for business and leisure purposes.  It was a nice place.  It is convienently located near Costco and other resturants. They have a gym that is nice.  The staff has always been nice.  They also have a nice breakfast that is cooked there.  You can always see the kitchen staff cooking the eggs in the kitchen.  It is close to Dallas area or if you are flying out of DFW its very close. It is also very quiet.  We have stayed here many times because we like the convience of the area and the friendliness of the staff.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r47058342-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>47058342</t>
+  </si>
+  <si>
+    <t>10/16/2009</t>
+  </si>
+  <si>
+    <t>Needs a remodel and pest control...great staff</t>
+  </si>
+  <si>
+    <t>I stayed in this room for two weeks on business and will be staying again for another two weeks very soon. The place has nice comfy beds and real friendly staff. It also leaves alot to be desired. I had a room with a wonderful view of the parking lot which has to have the brightest lights over it that are made. No matter what I did with the drapes it looked like it was the middle of afternoon at my window. The building is stick build so it does not block much noise. In my stay I regularly heard the dog in the room next door, people coming and going, and the baby accross the hall crying. The tv is laughable, very small and poor picture quality that is in no way visible from the bed or the little uncomfortable living room set up without moving the wheeled tv stand around.( I have been traveling alot this year and have been spoiled by the hyatts and hiltons with the 42" plasma screens) The rooms just have a very old well worn feel to them. I personally expect a bit more for an extended stay at this price point. The "workout center" would work, I guess, as it had a bit higher quality equipment than you typically find in hotels, but there is a very nice gym accross the street from the hotel. The pool was also laughable as it...I stayed in this room for two weeks on business and will be staying again for another two weeks very soon. The place has nice comfy beds and real friendly staff. It also leaves alot to be desired. I had a room with a wonderful view of the parking lot which has to have the brightest lights over it that are made. No matter what I did with the drapes it looked like it was the middle of afternoon at my window. The building is stick build so it does not block much noise. In my stay I regularly heard the dog in the room next door, people coming and going, and the baby accross the hall crying. The tv is laughable, very small and poor picture quality that is in no way visible from the bed or the little uncomfortable living room set up without moving the wheeled tv stand around.( I have been traveling alot this year and have been spoiled by the hyatts and hiltons with the 42" plasma screens) The rooms just have a very old well worn feel to them. I personally expect a bit more for an extended stay at this price point. The "workout center" would work, I guess, as it had a bit higher quality equipment than you typically find in hotels, but there is a very nice gym accross the street from the hotel. The pool was also laughable as it was about as big as most hotel hot tubs. The breakfast was good and they also have a drinks/appetizer hour every night that is a very nice gesture. The staff was very friendly and professional. The internet speed is TERRIBLE! With how cheap bandwidth and routers are now there is no excuse for slow connections. And their little "business office" computer is a joke. I needed to print some stuff for expense reports and nearly gave up becuase the computer and connection were so painfully slow. In my two week stay I killed at least 10 BIG grasshoppers/crickets and 2 or 3 salamanders which isn't out of the ordinary for down south but worth mentioning. I think this place has potential but is in serious need of a remodel and modernizing. I would personally not stay here again if I had the choice and it was on my dime. It's in a good area with lot's of shopping and plenty of dining nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>I stayed in this room for two weeks on business and will be staying again for another two weeks very soon. The place has nice comfy beds and real friendly staff. It also leaves alot to be desired. I had a room with a wonderful view of the parking lot which has to have the brightest lights over it that are made. No matter what I did with the drapes it looked like it was the middle of afternoon at my window. The building is stick build so it does not block much noise. In my stay I regularly heard the dog in the room next door, people coming and going, and the baby accross the hall crying. The tv is laughable, very small and poor picture quality that is in no way visible from the bed or the little uncomfortable living room set up without moving the wheeled tv stand around.( I have been traveling alot this year and have been spoiled by the hyatts and hiltons with the 42" plasma screens) The rooms just have a very old well worn feel to them. I personally expect a bit more for an extended stay at this price point. The "workout center" would work, I guess, as it had a bit higher quality equipment than you typically find in hotels, but there is a very nice gym accross the street from the hotel. The pool was also laughable as it...I stayed in this room for two weeks on business and will be staying again for another two weeks very soon. The place has nice comfy beds and real friendly staff. It also leaves alot to be desired. I had a room with a wonderful view of the parking lot which has to have the brightest lights over it that are made. No matter what I did with the drapes it looked like it was the middle of afternoon at my window. The building is stick build so it does not block much noise. In my stay I regularly heard the dog in the room next door, people coming and going, and the baby accross the hall crying. The tv is laughable, very small and poor picture quality that is in no way visible from the bed or the little uncomfortable living room set up without moving the wheeled tv stand around.( I have been traveling alot this year and have been spoiled by the hyatts and hiltons with the 42" plasma screens) The rooms just have a very old well worn feel to them. I personally expect a bit more for an extended stay at this price point. The "workout center" would work, I guess, as it had a bit higher quality equipment than you typically find in hotels, but there is a very nice gym accross the street from the hotel. The pool was also laughable as it was about as big as most hotel hot tubs. The breakfast was good and they also have a drinks/appetizer hour every night that is a very nice gesture. The staff was very friendly and professional. The internet speed is TERRIBLE! With how cheap bandwidth and routers are now there is no excuse for slow connections. And their little "business office" computer is a joke. I needed to print some stuff for expense reports and nearly gave up becuase the computer and connection were so painfully slow. In my two week stay I killed at least 10 BIG grasshoppers/crickets and 2 or 3 salamanders which isn't out of the ordinary for down south but worth mentioning. I think this place has potential but is in serious need of a remodel and modernizing. I would personally not stay here again if I had the choice and it was on my dime. It's in a good area with lot's of shopping and plenty of dining nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r14904396-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>14904396</t>
+  </si>
+  <si>
+    <t>04/09/2008</t>
+  </si>
+  <si>
+    <t>WOW!! Almost perfect</t>
+  </si>
+  <si>
+    <t>Let me preface by saying that I RARELY (if ever) give a 5 star rating to a hotel. So, for me to give a 5 star is really saying something.
+I had to stay at the Residence Inn Lewsivile while my house was having construction done on it. We stayed there for 1 business week.
+When I arrived to check-in there was a large party of about 10 women checking into separate rooms. There were 2 ladies rapidly checking people in. When they saw I was in a separate party, they immediately called me over to check in.
+My room was available and I pleasantly found a clean, fresh-smelling room on the 2nd floor. We got a 1 bedroom suite where the bedroom is off separately from the main living/kitchen area. Just as noted in my Marriott profile, I had extra pillows and towels waiting in my room. About 10 minutes after I arrived in my room I received a call from the front desk asking if everything was ok and advised me to call for anything I needed. 
+There were nightly receptions from 5-7 where refreshments and drinks were provided (beer and wine as well as a 24 hour coffee bar). At night there were fresh-baked cookies.
+The hotel service is what put it over the edge for me. If anyone has read my reviews before, you know that I am a stickler for cleanliness. It was so clean...Let me preface by saying that I RARELY (if ever) give a 5 star rating to a hotel. So, for me to give a 5 star is really saying something.I had to stay at the Residence Inn Lewsivile while my house was having construction done on it. We stayed there for 1 business week.When I arrived to check-in there was a large party of about 10 women checking into separate rooms. There were 2 ladies rapidly checking people in. When they saw I was in a separate party, they immediately called me over to check in.My room was available and I pleasantly found a clean, fresh-smelling room on the 2nd floor. We got a 1 bedroom suite where the bedroom is off separately from the main living/kitchen area. Just as noted in my Marriott profile, I had extra pillows and towels waiting in my room. About 10 minutes after I arrived in my room I received a call from the front desk asking if everything was ok and advised me to call for anything I needed. There were nightly receptions from 5-7 where refreshments and drinks were provided (beer and wine as well as a 24 hour coffee bar). At night there were fresh-baked cookies.The hotel service is what put it over the edge for me. If anyone has read my reviews before, you know that I am a stickler for cleanliness. It was so clean inside the room, outside the hotel and in the main areas. Even my linens in my room smelled fresh and new. I almost thought I wasn't even staying at a hotel. I will absolutely stay here again.The only complaint that I have....and I find this at ALL Residence Inn locations -- there was no dresser with drawers so that I could put my clothes in.  However, this is not the fault of this particular location as I find this problem with all RI chain locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me preface by saying that I RARELY (if ever) give a 5 star rating to a hotel. So, for me to give a 5 star is really saying something.
+I had to stay at the Residence Inn Lewsivile while my house was having construction done on it. We stayed there for 1 business week.
+When I arrived to check-in there was a large party of about 10 women checking into separate rooms. There were 2 ladies rapidly checking people in. When they saw I was in a separate party, they immediately called me over to check in.
+My room was available and I pleasantly found a clean, fresh-smelling room on the 2nd floor. We got a 1 bedroom suite where the bedroom is off separately from the main living/kitchen area. Just as noted in my Marriott profile, I had extra pillows and towels waiting in my room. About 10 minutes after I arrived in my room I received a call from the front desk asking if everything was ok and advised me to call for anything I needed. 
+There were nightly receptions from 5-7 where refreshments and drinks were provided (beer and wine as well as a 24 hour coffee bar). At night there were fresh-baked cookies.
+The hotel service is what put it over the edge for me. If anyone has read my reviews before, you know that I am a stickler for cleanliness. It was so clean...Let me preface by saying that I RARELY (if ever) give a 5 star rating to a hotel. So, for me to give a 5 star is really saying something.I had to stay at the Residence Inn Lewsivile while my house was having construction done on it. We stayed there for 1 business week.When I arrived to check-in there was a large party of about 10 women checking into separate rooms. There were 2 ladies rapidly checking people in. When they saw I was in a separate party, they immediately called me over to check in.My room was available and I pleasantly found a clean, fresh-smelling room on the 2nd floor. We got a 1 bedroom suite where the bedroom is off separately from the main living/kitchen area. Just as noted in my Marriott profile, I had extra pillows and towels waiting in my room. About 10 minutes after I arrived in my room I received a call from the front desk asking if everything was ok and advised me to call for anything I needed. There were nightly receptions from 5-7 where refreshments and drinks were provided (beer and wine as well as a 24 hour coffee bar). At night there were fresh-baked cookies.The hotel service is what put it over the edge for me. If anyone has read my reviews before, you know that I am a stickler for cleanliness. It was so clean inside the room, outside the hotel and in the main areas. Even my linens in my room smelled fresh and new. I almost thought I wasn't even staying at a hotel. I will absolutely stay here again.The only complaint that I have....and I find this at ALL Residence Inn locations -- there was no dresser with drawers so that I could put my clothes in.  However, this is not the fault of this particular location as I find this problem with all RI chain locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r12801223-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>12801223</t>
+  </si>
+  <si>
+    <t>01/19/2008</t>
+  </si>
+  <si>
+    <t>Clean, Reliable, Comfortable</t>
+  </si>
+  <si>
+    <t>Residence Inns are pretty consistent across the country, but this one seems to have a cleaner feel than others.  Friendly staff at the front desk, rooms are very clean, building is well constructed  - you won't hear "lead foots" in the floor above you.  The breakfast is well stocked and you can't beat the convenience of that in the morning.  I've stayed here before and come back due to the consistent experience.  There are fancier places around Frisco and Plano, but why drive the extra miles.  I do wish the Residence Inns would consider modernizing the rooms to some degree - upgrade the furniture style and get some flat panel TVs. They'll get some competition with the new Hilton Garden Inn that just opened up around the corner.  A colleague raved and said it was nicer than the Residence Inn.  This hotel is very convenient to several restaurants and a mall is right across the parking lot. Not a great mall, the one in Frisco is better, but convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence Inns are pretty consistent across the country, but this one seems to have a cleaner feel than others.  Friendly staff at the front desk, rooms are very clean, building is well constructed  - you won't hear "lead foots" in the floor above you.  The breakfast is well stocked and you can't beat the convenience of that in the morning.  I've stayed here before and come back due to the consistent experience.  There are fancier places around Frisco and Plano, but why drive the extra miles.  I do wish the Residence Inns would consider modernizing the rooms to some degree - upgrade the furniture style and get some flat panel TVs. They'll get some competition with the new Hilton Garden Inn that just opened up around the corner.  A colleague raved and said it was nicer than the Residence Inn.  This hotel is very convenient to several restaurants and a mall is right across the parking lot. Not a great mall, the one in Frisco is better, but convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r10161862-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>10161862</t>
+  </si>
+  <si>
+    <t>10/20/2007</t>
+  </si>
+  <si>
+    <t>Great rooms, friendly service &amp; yummy BBQ</t>
+  </si>
+  <si>
+    <t>Superb stay - everyone was very friendly, the facility was clean &amp; the housekeepers excellent. Not to mention the location - on the mall property &amp; within 15-20 mins of Lovefield &amp; DFW. Will stay again &amp; look forward to it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r5498405-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>5498405</t>
+  </si>
+  <si>
+    <t>07/21/2006</t>
+  </si>
+  <si>
+    <t>Spacious, friendly and well-located hotel!</t>
+  </si>
+  <si>
+    <t>This is the third hotel I've stayed at in in the Dallas-Fort Worth Area town of Lewisville, TX.  It far surpasses both Courtyard by Marriott (which is nearby) and Best Western, about 2 miles away.  The one bedroom suite had a separate bedroom separated by fully closing doors (not a slight partition as in some suite properties), and the bed was quality with a featherbed topper.  Living area was a sofa sleeper, lounge chair,TV, end tables and kitchen table with full kitchen.  Complimentary breakfast was better than most.  Eggs, sausage and biscuits, fresh fruit salad, yogurt, bagels, cereals, pastry and make-your-own waffles.  There is free 24 hour coffee and tea in the lobby as well as ice water.  No restaurant, but there is an assortment of pay snacks near the front desk (microwave items and the usual candy and salty snacks.)There is a free dinner item Monday-Thursday.  The entree is something such as a Taco Salad Bar or make your own sandwich.There is an indoor pool and a Jacuzzi.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>This is the third hotel I've stayed at in in the Dallas-Fort Worth Area town of Lewisville, TX.  It far surpasses both Courtyard by Marriott (which is nearby) and Best Western, about 2 miles away.  The one bedroom suite had a separate bedroom separated by fully closing doors (not a slight partition as in some suite properties), and the bed was quality with a featherbed topper.  Living area was a sofa sleeper, lounge chair,TV, end tables and kitchen table with full kitchen.  Complimentary breakfast was better than most.  Eggs, sausage and biscuits, fresh fruit salad, yogurt, bagels, cereals, pastry and make-your-own waffles.  There is free 24 hour coffee and tea in the lobby as well as ice water.  No restaurant, but there is an assortment of pay snacks near the front desk (microwave items and the usual candy and salty snacks.)There is a free dinner item Monday-Thursday.  The entree is something such as a Taco Salad Bar or make your own sandwich.There is an indoor pool and a Jacuzzi.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2117,4307 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>213</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>266</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>280</v>
+      </c>
+      <c r="X32" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s">
+        <v>287</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O33" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J34" t="s">
+        <v>291</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s">
+        <v>293</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>294</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>301</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s">
+        <v>309</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>301</v>
+      </c>
+      <c r="O36" t="s">
+        <v>310</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>302</v>
+      </c>
+      <c r="X36" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>340</v>
+      </c>
+      <c r="X40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>348</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>350</v>
+      </c>
+      <c r="J42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s">
+        <v>353</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>360</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>363</v>
+      </c>
+      <c r="K44" t="s">
+        <v>364</v>
+      </c>
+      <c r="L44" t="s">
+        <v>365</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>366</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>377</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s">
+        <v>382</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" t="s">
+        <v>387</v>
+      </c>
+      <c r="K48" t="s">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>383</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>392</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>396</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>398</v>
+      </c>
+      <c r="J50" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s">
+        <v>400</v>
+      </c>
+      <c r="L50" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>415</v>
+      </c>
+      <c r="J53" t="s">
+        <v>416</v>
+      </c>
+      <c r="K53" t="s">
+        <v>417</v>
+      </c>
+      <c r="L53" t="s">
+        <v>418</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>419</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>422</v>
+      </c>
+      <c r="J54" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>431</v>
+      </c>
+      <c r="O55" t="s">
+        <v>213</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>432</v>
+      </c>
+      <c r="X55" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>436</v>
+      </c>
+      <c r="J56" t="s">
+        <v>437</v>
+      </c>
+      <c r="K56" t="s">
+        <v>438</v>
+      </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>442</v>
+      </c>
+      <c r="J57" t="s">
+        <v>443</v>
+      </c>
+      <c r="K57" t="s">
+        <v>444</v>
+      </c>
+      <c r="L57" t="s">
+        <v>445</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>447</v>
+      </c>
+      <c r="J58" t="s">
+        <v>448</v>
+      </c>
+      <c r="K58" t="s">
+        <v>449</v>
+      </c>
+      <c r="L58" t="s">
+        <v>450</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>451</v>
+      </c>
+      <c r="O58" t="s">
+        <v>360</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>453</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>454</v>
+      </c>
+      <c r="J59" t="s">
+        <v>455</v>
+      </c>
+      <c r="K59" t="s">
+        <v>456</v>
+      </c>
+      <c r="L59" t="s">
+        <v>457</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>460</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>461</v>
+      </c>
+      <c r="J60" t="s">
+        <v>462</v>
+      </c>
+      <c r="K60" t="s">
+        <v>463</v>
+      </c>
+      <c r="L60" t="s">
+        <v>464</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>465</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>467</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>468</v>
+      </c>
+      <c r="J61" t="s">
+        <v>469</v>
+      </c>
+      <c r="K61" t="s">
+        <v>470</v>
+      </c>
+      <c r="L61" t="s">
+        <v>471</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>465</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>473</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>474</v>
+      </c>
+      <c r="J62" t="s">
+        <v>475</v>
+      </c>
+      <c r="K62" t="s">
+        <v>476</v>
+      </c>
+      <c r="L62" t="s">
+        <v>477</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>478</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>481</v>
+      </c>
+      <c r="J63" t="s">
+        <v>482</v>
+      </c>
+      <c r="K63" t="s">
+        <v>483</v>
+      </c>
+      <c r="L63" t="s">
+        <v>484</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>485</v>
+      </c>
+      <c r="O63" t="s">
+        <v>360</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>487</v>
+      </c>
+      <c r="J64" t="s">
+        <v>488</v>
+      </c>
+      <c r="K64" t="s">
+        <v>489</v>
+      </c>
+      <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>491</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>493</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>494</v>
+      </c>
+      <c r="J65" t="s">
+        <v>495</v>
+      </c>
+      <c r="K65" t="s">
+        <v>496</v>
+      </c>
+      <c r="L65" t="s">
+        <v>497</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>499</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>500</v>
+      </c>
+      <c r="J66" t="s">
+        <v>501</v>
+      </c>
+      <c r="K66" t="s">
+        <v>502</v>
+      </c>
+      <c r="L66" t="s">
+        <v>503</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>505</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33079</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>510</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>511</v>
+      </c>
+      <c r="J68" t="s">
+        <v>512</v>
+      </c>
+      <c r="K68" t="s">
+        <v>513</v>
+      </c>
+      <c r="L68" t="s">
+        <v>514</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>515</v>
+      </c>
+      <c r="O68" t="s">
+        <v>69</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>516</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_656.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_656.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="584">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>craftywriter</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -197,6 +200,9 @@
 Breakfast:...Room 2052 bedroom 2 bath 2 king suite - bedroom 1: 1 King bed, TV, 3 drawer chest, large closet, vanity/sink separate from toilet/shower tub combo. Living room:  sofa bed, coffee table, arm chair, TV. 3 drawer chest, and fireplace. Kitchen had a small table with chairs, refrigerator, dishwasher, coffee maker, microwave, and a full range and oven. Bedroom 2: 1 king bed, large closet, TV, 3-drawer chest, vanity/sink separate from toilet/shower tub combo. The shelves in both bathrooms aren't mounted well on the wall and could use proper anchoring. The hotel website advertises that this hotel offers Netflix; however, we were told the first night that the internet connection was down and on the 2nd night that they were still working on getting the whole hotel up and running and that they wouldn't have it fully functing for months. A bit frustrating since we had expected it based on the website. Hotel is backed up to a hillside so 2nd floor on the backside is at the same level as the mall parking lot behind the hotel. We had requested a top floor room but were told the only room available was on the 2nd, which seemed fine until we realized it was ground-floor level for the mall parking lot. So you get the noise from the parking lot sweeper in the morning and kids racing around in their cars leaving the mall parking lot at night. Breakfast: seating area is small so if you want a table be prepared to wait. There was a boys high school soccer team staying at the hotel so each morning was a challenge for the poor gal trying to replenish the food. I felt awful for her, they really should have gotten her some help. I don't blame her for not getting things cleaned up while running back and forth, I blame the hotel for not planning accordingly when they had a large group at the hotel. They had a good selection of breakfast items but not as good as some of the other hotels we stayed at. Indoor pool was nice (teenagers enjoyed it) and fitness center was right next to the pool with windows looking out to the pool area. The hotel as a whole is an older hotel and could use some updating throughout (carpeting in hallways and room is started to show alot of wear and the furnishings as well.On the morning of our second day my husband killed a cockroach in the kitchen area of our room. I called to the front desk and they assured me they would have their bug company come out to spray and that whatever they sprayed would not be toxic. When we returned that night, my daughter and husband found another cockroach climbing the wall in the bedroom. That was it for me, I was done. I called the front desk and said we'd had enough and that if there's 2 roaches that means there's more. They really need to do the entire hotel in order to be rid of them. The front desk called the Towneplace Suites across the street and made arrangements for us to stay there that night; however, we had already returned our rental car so we had no way to get our belongings there. We basically loaded everything up on the luggage cart and pushed it across the intersection/street to the Towneplace Suites. My husband was so angry, we felt like homeless people out there lugging our stuff across the street. Then to have to go through everything we had to ensure there were no roaches coming with us. Really something you shouldn't experience at a hotel on vacation. The Residence Inn still charged us for 3 nights and never contacted us again afterwards. The customer service stinks! I would NEVER stay at this property again, even if they got rid of the roaches - I cannot understand why they didn't even offer to comp us a night of stay or give us points or something for having to leave their hotel like that (I'm a long time Marriot Rewards member).More</t>
   </si>
   <si>
+    <t>JacksonDoyle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r551289238-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -215,6 +221,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Léon H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r529734281-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Shirley D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r507129090-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
   </si>
   <si>
     <t>July 2017</t>
+  </si>
+  <si>
+    <t>ColoradoFlyGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r499977563-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -284,6 +299,9 @@
 On check out, I'm telling the desk manager about roaches, the desk manager looked at me in disbelief - JUST THEN my son came to the desk and told me there was a 3" roach on the wall in the lobby...Where do I begin with this horrible Marriott hotel?  Frankly, very disappointing for a Marriott. First and Foremost - ROACHES and DIRTY hotel.  The list is long, we stayed there 8 days in room 311. We were in for a baseball tourney and all the rooms in the general area were overbooked. We reserved an accessible room, when we arrived on Friday they overbooked and gave it to someone else.  Really?  Who does that? Checked into our room, called about the mistake and was told by "Dee Dee" she would work on finding us a correct room or possibly moving us to another Marriott hotel, and she never called back.  In fact, Dee Dee said that never happens and wanted to know who placed the reservation for me = and it WAS HER!  I placed several calls to Dee Dee throughout the weekend and through the next week, and never returned my calls nor followed up.  Our room windows faced the mall - early every morning and late evening you could hear the trash and maintenance trucks roaring by. Very noisy. Ice machine was broken all week long - and there was only 1 ice machine in the hotel.On check out, I'm telling the desk manager about roaches, the desk manager looked at me in disbelief - JUST THEN my son came to the desk and told me there was a 3" roach on the wall in the lobby hallway. Rita, the hostess in the lobby - went into action and took care of it.  Everything was dirty from the lobby to the rooms.  I spoke with the Manager, Will on our last day, and while he apologized - didn't do much for our inconvenience. STAY AWAY!  There are plenty of hotels in the general vicinity to stay - we will not be back. ON A GOOD NOTE, there were two very nice ladies that worked the lobby area - RITA and another lady I cannot for the life of me remember her name.  They made everyone feel welcome. The list:ROACHES in our room AND in the hallways/walls/ceilings of the hotel. One was 3".Broken tub stopper - 2nd bedroomBLOOD on carpet by sink - 2nd bedroomDirty sheetsBroken Ice Machine - ALL WEEK LONG! Only ONE ice machine in this hotel!Unheated indoor pool that was TOO cold to swim in - even in 96* weather.Pool ended up broken on our last two days - didn't use it anyway - too cold.Broken metal lock entry doorDirty carpetSalt/Pepper shakers brokenInefficient cookware in kitchenNo luggage racks (hotel cleaning staff went room to room looking for a luggage rack).One particular hotel cleaning staff seemed to be on Crack or Uppers of some kindBroken phone cord - MasterMore</t>
   </si>
   <si>
+    <t>Jadehawk1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r499797268-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -308,6 +326,9 @@
     <t>I enjoyed our stay here. Common areas are dated and need new paint and carpet. The pool was very cold and the hottub was overchlorinated and burned our eyes. All that being said, the room itself was large (2 bedroom suite), and clean. Which is what we came for. Front desk staff is friendly and helpful. There is a basketball court and an area where you can grill outside which I thought was cool. Breakfast included.More</t>
   </si>
   <si>
+    <t>Audrey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r487517231-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -326,6 +347,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>JDcomb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r485296228-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -344,6 +368,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>AEZ22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r470619208-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -371,6 +398,9 @@
     <t>This hotel is tired, worn out, and nothing special by any means.  Breakfast is all fake food what a bummer, would have stayed at Hilton garden inn but it was sold out, for good reason..  rooms have full kitchens but who needs that for a regular business trip?More</t>
   </si>
   <si>
+    <t>Irishgold526</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r455897541-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -398,6 +428,9 @@
     <t>I recently stayed in a 2 bedroom suite for three nights.  Beds are comfortable and the suite is large.  The suite was clean and had all the amenities you may need.  The most enjoyable part of my stay was the friendly staff.  Front desk staff, Kevanna and Dee Dee were great!  Friendly, professional and willing to help you with anything you may need.  Nikki with housekeeping was also very helpful.  It was so refreshing to stay at a hotel where the staff really cared about their guests.  I'll stay there again when my travels take me to Dallas.More</t>
   </si>
   <si>
+    <t>Lance B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r450035459-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -422,6 +455,9 @@
     <t>Great stay for FCS Championship game. Friendly  staff. Excellent 1 bedroom suite. Fresh cookies and breakfast included. Convenient to shopping, restaurants and downtown. Very clean.  Free parking and free internet. More</t>
   </si>
   <si>
+    <t>stephenm233</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r446304730-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -449,6 +485,9 @@
     <t>Where do I begin....we arrived here on Dec. 19th to stay 1 night before arriving at the Great Wolf Lodge on Dec. 20th.....I booked 3 rooms, all 2 bedroom/2 bathroom suites, to accommodate all 15 of us  (kids and grand kids).....I cannot say enough positive comments about the staff and the hotel(DD, Trey, Janet).....we planned to get up on the 20th, eat a quick breakfast, and be over to the Great Wolf Lodge by 9am.....however, thanks to Marriott, that was delayed....but in the best way ever.  This Marriott had arranged for Santa Claus to be in the lobby early on the morning of the 20th.....and he was one of the best Santas we have ever seen.  All of us, kids and adults, were treated as a "kid"....we were able to get pics with Santa and the kids received one of the best stuffed reindeer we have ever seen given away, very high quality.  This made our day and our Christmas trip even more enjoyable.  I don't want to forget to speak of the high quality breakfast and the service provided by the lady who cooked it all and set it all up....she even sang Happy Birthday to one of my grandsons who did turn 21 on Dec. 20th.....Management took tons of pictures and offered to mail them to me, but I told then I would stop back by on Dec. 21st on our way home from the Great Wold Lodge.....I...Where do I begin....we arrived here on Dec. 19th to stay 1 night before arriving at the Great Wolf Lodge on Dec. 20th.....I booked 3 rooms, all 2 bedroom/2 bathroom suites, to accommodate all 15 of us  (kids and grand kids).....I cannot say enough positive comments about the staff and the hotel(DD, Trey, Janet).....we planned to get up on the 20th, eat a quick breakfast, and be over to the Great Wolf Lodge by 9am.....however, thanks to Marriott, that was delayed....but in the best way ever.  This Marriott had arranged for Santa Claus to be in the lobby early on the morning of the 20th.....and he was one of the best Santas we have ever seen.  All of us, kids and adults, were treated as a "kid"....we were able to get pics with Santa and the kids received one of the best stuffed reindeer we have ever seen given away, very high quality.  This made our day and our Christmas trip even more enjoyable.  I don't want to forget to speak of the high quality breakfast and the service provided by the lady who cooked it all and set it all up....she even sang Happy Birthday to one of my grandsons who did turn 21 on Dec. 20th.....Management took tons of pictures and offered to mail them to me, but I told then I would stop back by on Dec. 21st on our way home from the Great Wold Lodge.....I did and they had some of the best pictures ready for us.  We have stayed at MANY Marriott properties being a Gold Elite member, but none can match the hospitality, kindness, and FUN that this location provided.....Kudos to the mgt. team, cafe service, maintenance team, and housekeeping.  How can so many friendly people work in one location?  That is the sign of a strong manager!!!We will be returning!!!More</t>
   </si>
   <si>
+    <t>Teresa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r410212556-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -476,6 +515,9 @@
     <t>Very nice to have a two bedroom suite for our family of 4.  Teens (boy and girl) do not want to have to share a bed, so this place worked great.  Loved having a kitchen as well, really made the place a home away from home.  Free breakfast was less than ideal, when they ran out of stuff, if it was nearing the end of breakfast time, they would not replace.  Other than that it was all good.  We would stay here again.More</t>
   </si>
   <si>
+    <t>4Smiles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r399988721-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
   </si>
   <si>
     <t>We stayed here due to how accommodating the staff was ready for an entire baseball team around for a week. From check in to check out, the staff was very nice to us. Breakfast was awesome and they even gave them goody snack bags for the last day of the tournament. Food was delicious. Housekeeping was awesome!  We even had a toilet incident, and the manager on duty was ready (wearing a nice suit) with a plunger in his hand to take on the task! Staff was accommodating. Overall, it was a very nice "home away from home". Thank you Marriott Staff! Although, boys will be boys, you understood all of the families and always kept a smile on your faces during our stay. Thanks again for your great hospitality!! I cannot say enough about the staff. A+ for everyone.More</t>
+  </si>
+  <si>
+    <t>Regina H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r380929763-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -532,6 +577,9 @@
 I was also able to use the Marriott mobile app to check out on Monday - we just packed our luggage, left the key in the room and left...We were in the area for my niece's high school graduation and needed a place to stay - I am a big fan of Marriott's Residence Inn and decided to stay at this hotel - BEST DECISION MADE - THE HOTEL WAS EXCELLENT!  Right off IH 35 - close to Vista Ridge Mall and lots of restaurants - very convenient when traveling with older children!My family and I arrived on Saturday afternoon - I checked in via the Marriott mobile app - very nice - when I arrived, my room was ready!  All I had to do was stop at the front desk and pick up my key - very convenient! Staff at front desk was very nice and very pleasant.The room was spacious, clean, large bed with comfortable pillows; kitchen - just what we needed - with a microwave, refrigerator - everything that you would need for a kitchen was there.All of the employees at this hotel were very friendly and had a smile on their face; a hot complimentary breakfast was served and it very good, but it was even better on Monday morning due to the pleasant face and smile of Ms. Rita!  She made everything just wonderful and was a joy to talk with.I was also able to use the Marriott mobile app to check out on Monday - we just packed our luggage, left the key in the room and left - what a convenience!  My final bill was emailed to me - no need to stop at front desk!My family wanted to take advantage of the hot tub, but there was no water in the hot tub, so they were a little disappointed by that, but all-in-all - everything here at this hotel was A+ and yes - I highly recommend this hotel and will definitely stay here again when I am in the area.JOB WELL DONE MARRIOTT!More</t>
   </si>
   <si>
+    <t>Stephen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r367411626-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -559,6 +607,9 @@
     <t>So we checked in late, expecting the typical late night check-in. What we got was a friendly welcome, a bottle of water, and plenty of information regarding hotel services and local amenities. That service was repeated often during the stay; the front desk folks are as well-trained and as friendly as any front desk folks I've ever seen.Breakfast impressed me greatly. I mean, it was well prepared, but the food is often well-prepared at nice restaurants. What was awesome was how attentive the staff seemed regarding separation of food. Instead of all together close, the food was spread out, with the breads separated from the egg and sausage to reduce cross-contamination worries for the celiacs like my wife. That was very appreciated. The hotel looks new. Not sure if it is, but I noticed nothing that would make me think it wasn't built last week. Overall, great stay, and I'd highly recommend it.More</t>
   </si>
   <si>
+    <t>JGF621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r364961404-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -583,6 +634,9 @@
     <t>Hotel buildings and facilities are much the same.  Branded hotels like Residence stand out individually only when things wrong or when they excel.  The Residence Inn in Lewisville, TX excels because of its people.  They go out of their way to make guests feel welcome.  We just finished up a five night stay and cannot exaggerate how well we were treated.  Having stayed there before, we were not surprised but we felt compelled to publicize it.  They treated our four year old grand daughter like family with small gifts and made the whole process very pleasant.  Also, it should be mentioned that as other Residence Inns cut back on the evening social, these folks have bucked the trend, laying out a nice quality spread.  It makes a difference.  Barbecue night is a treat!The next time we’re in this area, we will consider no other hotel.More</t>
   </si>
   <si>
+    <t>Alan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r355748010-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -610,6 +664,9 @@
     <t>I stayed here for a week on a business trip to the Lewisville area. The hotel is a little dated and the rooms are a little tired but overall this is a good value hotel for an extended stay. I had one of the single 'suites' which was a large room with kitchenette and seating area. Plenty of room for working and relaxing, with a large and comfortable bed. Bathroom was a little small but shower was good.The hotel serves an American breakfast every day which was of a decent standard. On Monday, Tuesday, and Wednesday evenings there is a variety of free food and drink available in reception.The hotel has a small gym and a swimming pool, neither of which were too busy during my stay. Staff are friendly and helpful.There is a Mall, a Costco, and LA Fitness, and several restaurants within walking distance. There are also snacks and drinks available for purchase at reception.I'd definitely recommend this as a business hotel if you're in the area.More</t>
   </si>
   <si>
+    <t>Rob K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r329945948-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -635,6 +692,9 @@
   </si>
   <si>
     <t>Booked room for 2 adults and 2 children.  When room was cleaned the cleaning staff took the blanket from our sofa bed.  That night I went to front desk to get a blanket.  I was rudely told there were no blankets and to try turning up the heat.  Hotel was not even full, so a blanket could have easily been taken from another room.  Cold night and no blankets.  I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>pattycakesmn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r326521666-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -669,6 +729,9 @@
 Seriously, if you advertise a pull out bed, make sure that housekeeping checks to see that it is actually in the room, and then don't give me a lame excuse as to why you can't provide it.  Wall-mart is open 24 hours, make it happen.  Also our...It's in a decent location for us.  It was remodeled a few years back, and so the rooms are rather fresh.  Having the kitchenette is a nice feature.  The room we stayed in has a strange flaw where the toilet sits really close to the wall.  (it's really bizarre).  I'm sure the plumbing was set in the slab before that interior wall was placed so they weren't going to move it, but it's an odd experience having toilet paper rolls as an armrest, lol!Overall it was nice and clean, except for constant chain trouble spots, like the top of the tub where the surround is caulked to the wall.  The caulking was gross and looked like it was applied without any care, and quite dusty and grimy.  Unfortunately the curse of being tall...You see all these things.One thing that was kind-of annoying this trip was that the room didn't have any sheets or bedding/pillows for the pullout bed.  When I asked about the missing sheets they said "it's pretty late, we've given all the extras out."  I hassled them enough that they stole the pull-out bedding package from an un-sold room.  Seriously, if you advertise a pull out bed, make sure that housekeeping checks to see that it is actually in the room, and then don't give me a lame excuse as to why you can't provide it.  Wall-mart is open 24 hours, make it happen.  Also our request for extra feather pillows wasn't honored.More</t>
   </si>
   <si>
+    <t>nmsoonergirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r299840430-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>We stayed here one night while traveling to South Texas. We arrived after dark, and the hotel was easy to get to using GPS even with the road construction on I-35E.  The room was quiet, clean and the AC worked perfectly....really all I need in a hotel.  The hotel DOES have the tiny pillows that a lot of the Marriots have gone to and that drive me a little crazy, but other than that every thing was just peachy.The hotel is right next to a Costco which is always a bonus for shopping and getting gas.  We didn't eat breakfast at the hotel, but it looked like the typical RI breakfast spread.More</t>
   </si>
   <si>
+    <t>wanderingidiot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r282187382-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>I was greeted in a friendly manner, by an agent who immediately acknowledged my platinum status with Marriott.I was provided a complimentary upgrade to a 2 bedroom suite.  Each bedroom had its own full bathroom, and there was a full service kitchen/living room between the two bedrooms.On Mondays through Wednesdays, this Residence Inn offers a free breakfast buffet, as well as a complimentary happy hour. The happy hour occurs on Monday, Tuesday, Wednesday each week.The one night I was able to join for happy hour, there was grilled sausage and vegetables, and beer &amp; wine.  The beer was Stella Artois in a bottle (I was expecting a lower end domestic beer on draft, so was pleasantly surprised).There are restaurants in the area, but none are truly walkable.More</t>
   </si>
   <si>
+    <t>Bruce M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r271442086-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -738,6 +807,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>marin198</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r270739896-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Wacoans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r259652897-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -769,6 +844,9 @@
   </si>
   <si>
     <t xml:space="preserve">I have never stayed in a Residence Inn before, but I will definitely be considering it as my first choice of hotels. The room prices were very affordable and above average in value. The breakfast options were great.  Very friendly staff greeted and welcomed us each day. The indoor hotel pool and hot tub were well-maintained and a great temperature. There was a "social hour" in the evenings during the week that was nice. The bathrooms were a little small, but completely adequate. The beds were good and I slept well.  We went during spring break and I was surprised how quiet the rooms were. </t>
+  </si>
+  <si>
+    <t>Cassbella</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r241267054-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -804,6 +882,9 @@
 This has left my family in a major bind during a holiday week where most...I have been a very LOYAL Marriott member over the last 15 years. For the last 5 years I have stayed at this hotel in Lewisville the week of Thanksgiving. I always book a 2 bedroom suite to accomodate my family that is traveling from out of state. We really enjoy the 2 bedroom option as it gives us privacy with separate bedrooms but also provides a common living space to gather in the mornings and evenings as a family. This is the entire reason why I chose Residence Inn over another Marriott property for the 2 bedroom option!Less than 1 week before my upcoming visit this week I was informed via EMAIL Marriott didn't even have the courtesy to call but sent an email with this description.......We are reaching out to you regarding your reservations. Do to some unexpected stay-overs, we unfortunately will not be able to accommodate your request for a double bed room. However, we are able to accommodate you into two single bedrooms at the price of one. If this does not meet your accommodation needs, we will be more than happy to assist with finding a hotel that can meet your request. I called and spoke to the manager Joe, he was UNABLE to help me book another Residence Inn with a double bedroom option in the DFW vicinity. This has left my family in a major bind during a holiday week where most holidays are booked!This experience has left a horrible taste in my mouth for Marriott. This is no way to treat loyal Marriott customers including Marriott Reward Members! Be warned when booking this hotel, even 6 months + out you may find yourself receiving an email less than 1 week before your arrival stating your room is NOT available.More</t>
   </si>
   <si>
+    <t>Felipe R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r239003925-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -819,6 +900,9 @@
     <t>The Residence Inns are never a disappointment.  They are always huge, spacious,  relaxing and just great. The modern ammenities, cleanliness and relaxing atmosphere with pools, business center to easily print things and social events and dinner are great. We always get greeted warmly, service is great and we never really have any complaints. We recently stayed at the Grapevine Gaylord, and I was not thrilled.  I'd prefer the Lewisville Residence Inn any day. I have made this my hotel of choice when staying in Lewisville,  and other locations are also just as excellent. Will definitely stay here again.</t>
   </si>
   <si>
+    <t>Haesun C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r217446856-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -837,6 +921,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>klif01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r204134302-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -858,6 +945,9 @@
     <t>I first have to say Joe the manager and the various other staff I had the pleasure interacting with bend over backwards for everyone! I was there for three weeks and saw them treat everyone with care. Marriott gave my room reservation away to someone else when they overbooked. If you can imagine the frustration arriving and being sent elsewhere to a hotel. They did everything they could to make the situation better and I do not blame the hotel for giving my room away. They paid for my night elsewhere, gave me a bottle of wine, and had a six pack of craft beer waiting for me the next day when I actually got back from work. They even gave me an additional credit to my Marriott account. I wish I could remember the name of the black gal who was working every evening when I got back from work.  Does she ever get a day off? She was always so welcoming and cheerful to come "home" to. I hope you give her a raise since she also had to give me the bad news y'all gave my room away. More</t>
   </si>
   <si>
+    <t>mega04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r204045001-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -877,6 +967,9 @@
   </si>
   <si>
     <t>Just returned home from our weekend trip to Dallas (Lewisville area), and made sure to come straight to the computer to write this review. We were in town to visit my brother in law to see the new house that they built and I needed to find a place to stay that was close by. I can't say enough about the friendliness of the manager and staff, the cleanliness of the room, the size and amenities of the room/hotel. The (free!)breakfasts choices are great, no need to venture out for breakfast. Although we did not get to participate in the cocktail hour if its anything like breakfast I'm sure its wonderful. There are plenty of places to dine out around the hotel, as well as places to shop. And on check out the manager even gave us a few waters and snacks for our trip home! This will be our new home away from home when we visit my brother in law from now on!More</t>
+  </si>
+  <si>
+    <t>vikinggoddess</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r200610205-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -907,6 +1000,9 @@
 We are reasonable people, and not terribly picky when it...I've stayed here several times, and have had no major issues until today. It's an older hotel but reasonably clean. We checked in to our room, and as we got settled noticed that there were ants behind and around the nightstand in one room of the suite. About an hour later, there was a knock on the door and I promptly got up to answer; by the time I crossed the room the door was already opening and a young man in a Residence Inn polo shirt (no badge or any attempt to identify himself) walked into the room. I expected a surprised apology and a quick exit, but instead he strode past me and announced "I'm checking the phones, we just got new ones and some need face plates." He walked into one bedroom of the suite, then through the living room, looking at the phones but also quite possibly looking at all of our possessions, and then into the other bedroom where my husband was lying on the bed - and actually leaned over my husband to look at that phone! He said he was going into the hall and then would be right back - and I asked him not to return until after we had checked out the following day. It was just very strange. We promptly booked a room at a different hotel and left.We are reasonable people, and not terribly picky when it comes to hotels. We hope for clean sheets, a pleasant smell, no insect infestations, and nobody barging into the room unannounced. The entire situation was so uncomfortable that I will absolutely not be staying at this hotel on future trips to the area.More</t>
   </si>
   <si>
+    <t>vacationrooms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r200497883-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1021,9 @@
     <t>Had a great stay at this location. We came home from a weekend trip and our home was flooded so our insurance company made arrangement for our stay at this location. The complete staff was very polite and considerate and never hesitated to acknowledge us as we came in and left the premises.  Our suite was very nice and clean, the bed was very comfortable and the suite was decorated very nicely with all the ammenities of home. Breakfast and the nightly happy hour was a plus too, as we did not have to spend much on eating out. I would recommend this place to anyone and also would let everyone know that these properties provide "room at the inn" hospitatlity during the holidays and people in need of a room.More</t>
   </si>
   <si>
+    <t>Kawaina D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r199579109-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1045,9 @@
     <t>We were in Dallas , Tx for Spring Break for a basketball tournament . From the moment we stepped in the door we were greeted by front desk agent Jasmine. Her warm smile and kind efficient checkin  was exceptional. I noticed that entire staff were very friendly and offer additional service. The next morning I was able to come in contact with the GM Ms. Brittany Wade. I was very impressed that my son asked for a basketball and she immediately dropped what she was doing and gave it to him. My son told me she was very engaged with him by talking to him about  basketball.  Not only did that make me and his dad happy but Janoel  said she allowed me to express my love for basketball. We will definitely recommend Residence Inn in Lewisville to our family and friends. And this is our new home when we come back to the Dallas area.More</t>
   </si>
   <si>
+    <t>Stan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r185500711-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -973,6 +1075,9 @@
     <t>I always stay at this location when I am in the Dallas area because they are the friendliest place i have stayed at in the 15 years that i have traveled to Dallas. I have stayed at numerous locations before finding this hotel. Just an example, my recent stay, Tavia took care of my room and left me a personal hand written note hoping that I have a good day. This personal touch is what keep me coming back.More</t>
   </si>
   <si>
+    <t>Zhean H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r185354009-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1099,9 @@
     <t>I am wrapping my last night of another stay in Residence Inn. This time I stayed at the location in Lewisville, Tx. for 14 days (11/7 thru 11/21). I had the pleasure of meeting several awesome staff members. The first person I met was Christa Olesen. She checked me in and, with a lot of patients, made some needed chances to my reservation. Every staff member I met from check-in until now have been very pleasant and social. My room is very nice, clean and well stocked. The hotel is current in style and design. The colors are beautiful. It has a small, but full kitchen in an open floor plan. It has all the amenities of home minus the oven. Two ladies from housekeeping (Jessica Taylor and Evelyn Bolta) keep my room in top condition every day. Ladonna had breakfast nicely prepared and laid out each morning. If you see her, ask her about her arm. She is having a little trouble with it. It would really make her feel good knowing someone cares. I also met Sal. He works the front desk and is very friendly. He usually had a claim, take care of the guess kind of presents. I don't want to forget Julia. She prepares dinner in the evenings. My first night she made an amazing potato and bacon soup. It's worth the stay alone. I didn't meet the manager (Brittany Wade) until late in my...I am wrapping my last night of another stay in Residence Inn. This time I stayed at the location in Lewisville, Tx. for 14 days (11/7 thru 11/21). I had the pleasure of meeting several awesome staff members. The first person I met was Christa Olesen. She checked me in and, with a lot of patients, made some needed chances to my reservation. Every staff member I met from check-in until now have been very pleasant and social. My room is very nice, clean and well stocked. The hotel is current in style and design. The colors are beautiful. It has a small, but full kitchen in an open floor plan. It has all the amenities of home minus the oven. Two ladies from housekeeping (Jessica Taylor and Evelyn Bolta) keep my room in top condition every day. Ladonna had breakfast nicely prepared and laid out each morning. If you see her, ask her about her arm. She is having a little trouble with it. It would really make her feel good knowing someone cares. I also met Sal. He works the front desk and is very friendly. He usually had a claim, take care of the guess kind of presents. I don't want to forget Julia. She prepares dinner in the evenings. My first night she made an amazing potato and bacon soup. It's worth the stay alone. I didn't meet the manager (Brittany Wade) until late in my stay. She just as all of her staff, was very friendly and extremely easy to talk with. Joe and Darnel are two staffers I saw in passing. Their smiles keep the hotel warm and pleasant. In all, I would say this location really has it together. The staff, the location and the price point are all in sync. I would highly recommend this location for both short-term and long-term stays.  FYI --- Christa Olesen is both pretty and SMART!More</t>
   </si>
   <si>
+    <t>ruth p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r179994339-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1123,9 @@
     <t>Was here over the weekend of Oct 5-6th with my family for a wedding. I live in Oak Cliff and was not wanting to drive back and forth to pick-up family and then the rain came hard on Saturday.Don at the desk was very helpful in helping me with my parents with the rain outside and the luggage and 2 small children. Then the desk manager Joe went out of his way to help me with my dad in his wheel chair, went up to the room to make sure temp in room was comfortable for my parents that where cold due to rain and started coffee in room for them. Extra blankets where brought up to the room and pillows. when I asked why Mr. Joe stated that the room. had a sleeper sofa so we can stay the night and avoid driving in the rain. We where invited to the breakfast in the morning, all 5 of us, complimentary. Both Joe and Don made me and my family feel very welcomed. Room was nice, breakfast very good. Was happy to see both Don and Joe in the morning, again being friendly. Went to wedding and told everyone how lovely the hotel was and how friendly everyone is there. wowMore</t>
   </si>
   <si>
+    <t>Rishabh2100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r170490651-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1153,9 @@
     <t>Stayed her for 9 days in June. The hotel is a standard Residence Inn Hotel with very small breakfast area and no lobby. The rooms are standard. Breakfast is OK. I move to Towne Place Suites on the 10th day after I figured that they have similar facilities for almost 30% lesser on price.More</t>
   </si>
   <si>
+    <t>Brad C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r169301343-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1177,9 @@
     <t>We met our grandsons in the Dallas area and stayed at this location.  We had stayed there before and knew of its proximity to many of the things we had planned.  We rented a two bedroom and it provided ample space for everyone.  The kitchen was functional and we were able to do several meals in the room.  The breakfast is pretty standard for a Residence Inn.  We were there for two nights of the evening reception.  The first night was very disappointing, but the second was much improved.  The first night we had corn dogs that were burned on one side along with pizza bites.  The best part of this hotel is the staff.  We never found anyone that didn't have a smile and great willingness to help.  I can't remember a hotel where everyone provided this kind of service.More</t>
   </si>
   <si>
+    <t>tripreview131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r166931603-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1204,9 @@
     <t>We stayed in this hotel for a week.  We had numerous problems with the air conditiioner leaking in our room.  The floor was constantly wet and there was mold growing on the floor.  By the time we left, we were all feeling sick.  We had told them about the leak, they came the next day to change the air filter.  Then realized the floor was wet and said they would bring in some fans, that never happened until the day before we left.  Actually, that is when the a/c repair man came to repair our a/c that was leaking.  We stayed there with mulitple families and others had some of the same complaints as well as the rotten egg smell as well.  On another note, our toilet kept stopping up and we weren't able to get anyone to unclog it, finally, they gave us a plunger and told us to do it ourselves.  I thought the Residence Inn with the Marriot name would be a nice hotel, however, I felt like this was a total waste of money!!!More</t>
   </si>
   <si>
+    <t>Laura B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r155623222-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1225,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>rjlowe2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r155519546-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1243,9 @@
     <t>This is the only hotel in the area I could find that offers two bedroom suites with a king bed in each bedroom.  Each bedroom has a full size bathroom which was very helpful.  The couch pulls out to a full size bed.  There were six of us in the room and it was very comfortable.  They offer dinner Monday-Thursday.  The night we were there they were serving chicken strips, mashed potatoes and biscuits.  We didn't eat dinner but we saw several families eating there.  Very nice place to stay!</t>
   </si>
   <si>
+    <t>jason m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r154580721-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1141,6 +1267,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Billy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r148149714-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1288,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>freq_travelllll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r147876257-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1309,9 @@
     <t>the residence inn in lewisville is my new favorite place to stay, i am on the road a lot for my job and the staff of this hotel really makes me feel like i"m at home, especially bill and neil who made sure i had the best, softest cookies as soon as i walked in the door. the manager abigail took special care of me by ensuring my room was feather free and relentlessly searching for a restaurant that caters to vegans. i swear i even saw the maintenance man cleaning rooms, which doesn't happen vary often. do your self a favor and stay at the residence inn in lewisville!More</t>
   </si>
   <si>
+    <t>cakeshak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r147008764-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1327,9 @@
     <t>I am guessing that the renovations are done as our room was modern and beautiful.  Housekeeping excellent, even exercise room and pool area very clean.  Breakfast was simole but good and the evening managers social had very good food. Exceptional lasagna, yummy.Very nice stay.</t>
   </si>
   <si>
+    <t>Thomas W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r144009335-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1351,9 @@
     <t>I travel to Dallas often but typically stay at the Full Service Marriotts closer to the airport.  This past week all of those hotels were sold out so I decided to stay at the Residence Inn in Lewisville, which I was very happy with.  The service was great from beginning to end and the rooms were beautiful (Looked like they were just remodeled).  The lobby had a great atmosphere in the evening for a little Happy Hour and in the morning for a very nice spread of breakfast foods.  Very close to shopping and many other restaurants.  Also a great price compared to some of the other high end Marriott locations.Tom W - PennsylvaniaMore</t>
   </si>
   <si>
+    <t>Barry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r143615688-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1372,9 @@
     <t>When your planning a wedding and looking for a place to stay where it does not cost an arm and leg, look at this beautiful hotel among all the rest in the northern Dallas (Lewisville) Texas area. It is in a great location. Many nice quality restaurants and the Vista Ridge Mall are within close walking distance for food and shopping. Renovations are complete. If your looking for a getaway, this is the place to come. The breakfast area is great including the food. Bring a swim suit because the indoor swimming pool and hot tub are to relax. The rooms are Texas size and very comfortable. This is a great place for weekend family get togethers or a perfect business hotel to northern Dallas. There are quiet places inside your room or outside on a patio. Check it out, then, check in. BTW it's 40 minutes from downtown Dallas (not rush hour).More</t>
   </si>
   <si>
+    <t>CADirk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r140725512-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1249,6 +1393,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Elle G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r134512161-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1411,9 @@
     <t xml:space="preserve">I really enjoyed my stay here and have booked  another 5 weeks here. The staff has been so friendly and made my stay so comfortable that it feels like a home away from home. The renovations are looking good and can't wait to see the finished look. Its easy access to just about averything including the mall. I highly reccomend this hotel! </t>
   </si>
   <si>
+    <t>Sandy6-68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r132948415-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1435,9 @@
     <t>We had stayed here 4 years ago and really liked it, but they've recently undergone a major remodeling and it's even better!  We were hooked the minute we walked into our room!!  The new furnishings and carpet make it a beautiful place!!  Spending time in our suite felt like being at home rather than being in a hotel.  The front desk staff were always friendly and greeted you as you were coming or going.  The 24/7 coffee/tea bar was a plus, as were the fresh cookies on the front counter.  My husband and kids loved the indoor pool.  We will definitely be staying here again and will recommend it to anyone needing a hotel in the Lewisville area!!!More</t>
   </si>
   <si>
+    <t>48traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r132604721-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1453,9 @@
     <t>This is a very nice property with a well trained and friendly staff.  I have stayed here several times and have always been greeted with a welcoming smile.Nice, newly renovated rooms and a roomy breakfast area with both hot and cold food offered.The indoor pool is a favorite of my grandchildren.It is convenient to the Vista Ridge Mall and countless restaurants in the area.This is at the top of my list when in the area.</t>
   </si>
   <si>
+    <t>Tammy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r130963522-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1477,9 @@
     <t>The hotel is beautiful, very modern and updated with all the amenities, but what makes this hotel so great is the staff.  Every single employee we have come in contact with knows the true meaning of providing amazing customer service.  They go out of their way to assist you and make you feel like this is truly your home away from home.  We will be here for about a month due to a flood in our home ~ they have turned a very stressful situation into a pleasant one. From the front desk personnel to the kitchen staff to the wonderful ladies that clean our rooms,  I can't recommend this hotel enough ~ they know the true meaning of customer service.   Thank you!Tammy Maxwell and Family, Coppell, TXMore</t>
   </si>
   <si>
+    <t>kevint23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r126716976-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1495,9 @@
     <t>They are currently doing a total remodel it looks great huge change. The manager and staff super helpful</t>
   </si>
   <si>
+    <t>harry_deb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r125375423-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1525,9 @@
     <t>Stayed here for 3 nights while visiting a friend.  The place is older but in a nice neighborhood next to a large shopping mall and there are lots of good restaurants close by.  The kitchen had everything we needed though we did not eat in much.  Breakfasts were decent and staff was friendly.More</t>
   </si>
   <si>
+    <t>es_in_tx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r122066107-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1546,9 @@
     <t>I have stayed at this location several times while visiting family in North Dallas.  While the location is convenient and the hotel historically has been great to stay at, it is showing its age.  There are a number of hotels that have opened right around this location that are newer, around the same price point, and with similar amenities.  They appear to have started to rennovate the hotel so perhaps things will improve over the next several months.  Not a bad place, but there are a number of other options in the area I would look at as well.  Overall pretty clean.  Breakfast offering leaves a bit to be desired.  Staff is OK, although a bit disengaged.More</t>
   </si>
   <si>
+    <t>TravelingAli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r118252065-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1564,9 @@
     <t xml:space="preserve">Our room was quite large with King Bed, kitchen complete with dishes, sofa, desk area. There is laundry area and they will pick up groceries if you leave a list in the morning. The location is great, walking distance to restaurants and the mall. Super Target a few blocks away. </t>
   </si>
   <si>
+    <t>Celbea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r116778996-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1417,6 +1588,9 @@
     <t>Nothing about this hotel is updated or reminded me of any Residence Inn I've stayed in before.  The front desk and rooms are in desperate need of a renovation or update. The carpet in the hallways is torn and rooms even worse with stains.  During our stay the maintenance man knocked on our door and said he needed to get into a closet cause there was a leak in the room below. We asked him to come back later but to call us first, he did not.  We left for the day  and when we came back there was a note written on a piece of paper stating why he was in our room.  Yes, written on a piece of paper.  On the second night our A/C stopped cooling and front desk guest guy, Neil said he could not help us but to call the GM in the morning.  Really? I could not believe he said this and we decided to leave the next morning.  Before checking out I called the front desk to speak to the GM around 9am and was told he was not in yet and they did not know when he would be in.  Why wouldn't they just offer his voice mail to me?  Oh they did and said he rarely checks his voice mail....  When we were checking out we heard another guest at the front desk talking to the police about their car getting...Nothing about this hotel is updated or reminded me of any Residence Inn I've stayed in before.  The front desk and rooms are in desperate need of a renovation or update. The carpet in the hallways is torn and rooms even worse with stains.  During our stay the maintenance man knocked on our door and said he needed to get into a closet cause there was a leak in the room below. We asked him to come back later but to call us first, he did not.  We left for the day  and when we came back there was a note written on a piece of paper stating why he was in our room.  Yes, written on a piece of paper.  On the second night our A/C stopped cooling and front desk guest guy, Neil said he could not help us but to call the GM in the morning.  Really? I could not believe he said this and we decided to leave the next morning.  Before checking out I called the front desk to speak to the GM around 9am and was told he was not in yet and they did not know when he would be in.  Why wouldn't they just offer his voice mail to me?  Oh they did and said he rarely checks his voice mail....  When we were checking out we heard another guest at the front desk talking to the police about their car getting broken into the night before.  Where was security???  The last straw was when we went to have breakfast and the older white breakfast lady told us breakfast was over and we could take something to go from what was leftover.  I have never had this experience at a Residence Inn and hope to never again.  WE WILL NEVER stay at this hotel again.  Where was the GM and why does he not check his voice mail.  The staff did not even seem like they knew where he was.More</t>
   </si>
   <si>
+    <t>mlempx4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r106576612-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1438,6 +1612,9 @@
     <t>We are regular patrons of all Residence Inn by Marriott for several reasons.  Their one bedroom suites fit our family of 4 perfectly.  We (the parents) take over the bedroom with TV while our two kids get the pull-out sofa sleeper in the living room with their own TV.  Everyone is happy.  We arrived at 7:30pm after driving for 15 hours.  We got our keys and the Assistant Manager, Marcus, informed us that he would have the kitchen staff keep the reception area open so our family could eat the brats and potatoes that were grilled that night.  This was HUGE for us since the closing time was actually 7pm.  Thanks Marcus!!We all had a much needed and restful night sleep.  In the morning, we ate their buffet breakfast.  We always look forward to this breakfast as it keeps our family full until late in the afternoon and we don't have to go out and look for food first thing in the am.We give this Residence Inn 5 stars and when we happen through the north Dallas/Fort Worth area, we will be back!More</t>
   </si>
   <si>
+    <t>Debster01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r97762711-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +1636,9 @@
     <t>This was a very nice hotel and well priced at that. The man checking us in was very professional and friendly. In fact everyone on staff was nice and polite-always saying hello to us when we walked by the front desk. We had a 1 bedroom suite which at 80 dollars a night was an excellent value. The bed was comfortable, and the room very clean. Breakfast was quite good-and the staff was always working very hard keeping the food well stocked. One time we saw only one woman stocking and cooking the food-she was really working very hard. The indoor pool was nice-hot tub was not very warm however. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>margalow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r97049986-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1477,6 +1657,9 @@
     <t>I wanted to give this place a perfect score, except for the broken air conditioner. The manager said they were doing some emergency repairs on it. We enjoyed the choice of feather or foam pillows. Children enjoyed having 3 TVs. Staff pleasant and helpful. Pool clean, could have been just a tad warmer, but no biggie. Hot tub clean and ahhhhhhhh, just right. Nice work out room. Our room :  with two separate bedrooms, living room with fireplace and full kitchen. We could have lived here. Breakfast was good. I took it back to the room while everyone slept. Kept it all in the fridge until they were ready to eat.Then after a nice morning swim it was heat and eat time on real dishes. So nice to sit together at the table in our quiet room and enjoy each others company before getting back on the road.  We were very pleased and will stay again. I feel certain the concierge tells the truth about actively working on the air conditioning system.More</t>
   </si>
   <si>
+    <t>HudsonValleyGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r68368572-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1498,6 +1681,9 @@
     <t>Stayed here just for night over a weekend.    The checkin was very friendly and helpful as I arrived at the wrong RI, but decided to stay.The place is in good condition, comfortable and roomy.     CRT type TVs, with a good selection of channels, including multiple HBOs.  The internet access was good and free.There was noise from the hallwasy &amp; the next room at times (loud voices, bumbs on the wall...  but not sure if this was the construction or just noisy people.The included hot &amp; cold breakfast buffet was good, including a pot of real oatmeal.  The breakfast room is a bit small, so I can see it being a problem during the busier week day mornings.A very good place to stay.More</t>
   </si>
   <si>
+    <t>mljhnsn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r54238913-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1702,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>kawisixer01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r47058342-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1724,9 @@
   </si>
   <si>
     <t>I stayed in this room for two weeks on business and will be staying again for another two weeks very soon. The place has nice comfy beds and real friendly staff. It also leaves alot to be desired. I had a room with a wonderful view of the parking lot which has to have the brightest lights over it that are made. No matter what I did with the drapes it looked like it was the middle of afternoon at my window. The building is stick build so it does not block much noise. In my stay I regularly heard the dog in the room next door, people coming and going, and the baby accross the hall crying. The tv is laughable, very small and poor picture quality that is in no way visible from the bed or the little uncomfortable living room set up without moving the wheeled tv stand around.( I have been traveling alot this year and have been spoiled by the hyatts and hiltons with the 42" plasma screens) The rooms just have a very old well worn feel to them. I personally expect a bit more for an extended stay at this price point. The "workout center" would work, I guess, as it had a bit higher quality equipment than you typically find in hotels, but there is a very nice gym accross the street from the hotel. The pool was also laughable as it...I stayed in this room for two weeks on business and will be staying again for another two weeks very soon. The place has nice comfy beds and real friendly staff. It also leaves alot to be desired. I had a room with a wonderful view of the parking lot which has to have the brightest lights over it that are made. No matter what I did with the drapes it looked like it was the middle of afternoon at my window. The building is stick build so it does not block much noise. In my stay I regularly heard the dog in the room next door, people coming and going, and the baby accross the hall crying. The tv is laughable, very small and poor picture quality that is in no way visible from the bed or the little uncomfortable living room set up without moving the wheeled tv stand around.( I have been traveling alot this year and have been spoiled by the hyatts and hiltons with the 42" plasma screens) The rooms just have a very old well worn feel to them. I personally expect a bit more for an extended stay at this price point. The "workout center" would work, I guess, as it had a bit higher quality equipment than you typically find in hotels, but there is a very nice gym accross the street from the hotel. The pool was also laughable as it was about as big as most hotel hot tubs. The breakfast was good and they also have a drinks/appetizer hour every night that is a very nice gesture. The staff was very friendly and professional. The internet speed is TERRIBLE! With how cheap bandwidth and routers are now there is no excuse for slow connections. And their little "business office" computer is a joke. I needed to print some stuff for expense reports and nearly gave up becuase the computer and connection were so painfully slow. In my two week stay I killed at least 10 BIG grasshoppers/crickets and 2 or 3 salamanders which isn't out of the ordinary for down south but worth mentioning. I think this place has potential but is in serious need of a remodel and modernizing. I would personally not stay here again if I had the choice and it was on my dime. It's in a good area with lot's of shopping and plenty of dining nearby.More</t>
+  </si>
+  <si>
+    <t>JudgeTravel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r14904396-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1565,6 +1757,9 @@
 The hotel service is what put it over the edge for me. If anyone has read my reviews before, you know that I am a stickler for cleanliness. It was so clean...Let me preface by saying that I RARELY (if ever) give a 5 star rating to a hotel. So, for me to give a 5 star is really saying something.I had to stay at the Residence Inn Lewsivile while my house was having construction done on it. We stayed there for 1 business week.When I arrived to check-in there was a large party of about 10 women checking into separate rooms. There were 2 ladies rapidly checking people in. When they saw I was in a separate party, they immediately called me over to check in.My room was available and I pleasantly found a clean, fresh-smelling room on the 2nd floor. We got a 1 bedroom suite where the bedroom is off separately from the main living/kitchen area. Just as noted in my Marriott profile, I had extra pillows and towels waiting in my room. About 10 minutes after I arrived in my room I received a call from the front desk asking if everything was ok and advised me to call for anything I needed. There were nightly receptions from 5-7 where refreshments and drinks were provided (beer and wine as well as a 24 hour coffee bar). At night there were fresh-baked cookies.The hotel service is what put it over the edge for me. If anyone has read my reviews before, you know that I am a stickler for cleanliness. It was so clean inside the room, outside the hotel and in the main areas. Even my linens in my room smelled fresh and new. I almost thought I wasn't even staying at a hotel. I will absolutely stay here again.The only complaint that I have....and I find this at ALL Residence Inn locations -- there was no dresser with drawers so that I could put my clothes in.  However, this is not the fault of this particular location as I find this problem with all RI chain locations.More</t>
   </si>
   <si>
+    <t>MyrtleMay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r12801223-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1583,6 +1778,9 @@
     <t>Residence Inns are pretty consistent across the country, but this one seems to have a cleaner feel than others.  Friendly staff at the front desk, rooms are very clean, building is well constructed  - you won't hear "lead foots" in the floor above you.  The breakfast is well stocked and you can't beat the convenience of that in the morning.  I've stayed here before and come back due to the consistent experience.  There are fancier places around Frisco and Plano, but why drive the extra miles.  I do wish the Residence Inns would consider modernizing the rooms to some degree - upgrade the furniture style and get some flat panel TVs. They'll get some competition with the new Hilton Garden Inn that just opened up around the corner.  A colleague raved and said it was nicer than the Residence Inn.  This hotel is very convenient to several restaurants and a mall is right across the parking lot. Not a great mall, the one in Frisco is better, but convenient.More</t>
   </si>
   <si>
+    <t>voiletdog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r10161862-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1794,9 @@
   </si>
   <si>
     <t>Superb stay - everyone was very friendly, the facility was clean &amp; the housekeepers excellent. Not to mention the location - on the mall property &amp; within 15-20 mins of Lovefield &amp; DFW. Will stay again &amp; look forward to it!</t>
+  </si>
+  <si>
+    <t>GraceSF</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106723-r5498405-Residence_Inn_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2121,43 +2322,47 @@
       <c r="A2" t="n">
         <v>33079</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>100118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2169,56 +2374,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33079</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2238,50 +2447,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33079</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175730</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2295,50 +2508,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33079</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2352,50 +2569,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33079</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175731</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2413,56 +2634,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33079</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175732</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2474,56 +2699,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33079</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2537,50 +2766,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33079</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175733</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2594,50 +2827,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33079</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175734</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2649,56 +2886,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33079</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175735</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2716,56 +2957,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33079</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>7706</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2777,56 +3022,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33079</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175736</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2842,56 +3091,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33079</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>3916</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2907,56 +3160,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33079</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175737</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2972,56 +3229,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33079</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>4704</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>157</v>
       </c>
-      <c r="J16" t="s">
-        <v>158</v>
-      </c>
-      <c r="K16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>144</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3039,56 +3300,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33079</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>8055</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3106,56 +3371,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33079</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175738</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3171,56 +3440,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33079</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>83026</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3238,56 +3511,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33079</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>3393</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3299,56 +3576,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33079</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175739</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3364,56 +3645,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33079</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175740</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3431,56 +3716,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33079</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175741</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3500,50 +3789,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33079</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>10242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3563,50 +3856,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33079</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175742</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3620,41 +3917,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33079</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175743</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -3673,50 +3974,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33079</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175744</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3734,56 +4039,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33079</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175745</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3797,50 +4106,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33079</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175746</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3860,50 +4173,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33079</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175747</v>
+      </c>
+      <c r="C30" t="s">
+        <v>289</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3917,50 +4234,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33079</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175748</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3984,50 +4305,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33079</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175749</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4039,56 +4364,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="X32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="Y32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33079</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>66343</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4112,50 +4441,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33079</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175750</v>
+      </c>
+      <c r="C34" t="s">
+        <v>321</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4179,50 +4512,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33079</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>75985</v>
+      </c>
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="J35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4244,56 +4581,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="X35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33079</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175751</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4315,56 +4656,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="X36" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="Y36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33079</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175752</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4388,50 +4733,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33079</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>175753</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4453,56 +4802,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33079</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>31207</v>
+      </c>
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4526,50 +4879,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33079</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175754</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4591,56 +4948,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="X40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="Y40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33079</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="O41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4664,50 +5025,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33079</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175755</v>
+      </c>
+      <c r="C42" t="s">
+        <v>389</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4731,50 +5096,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33079</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>63593</v>
+      </c>
+      <c r="C43" t="s">
+        <v>395</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="K43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="O43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4798,50 +5167,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33079</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>9306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>403</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="J44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="K44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="L44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4865,50 +5238,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33079</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175756</v>
+      </c>
+      <c r="C45" t="s">
+        <v>410</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4932,50 +5309,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33079</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C46" t="s">
+        <v>417</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="J46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4999,50 +5380,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33079</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>6549</v>
+      </c>
+      <c r="C47" t="s">
+        <v>423</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5066,50 +5451,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33079</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>2143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>431</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5133,50 +5522,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33079</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>175758</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="J49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5200,41 +5593,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33079</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175759</v>
+      </c>
+      <c r="C50" t="s">
+        <v>445</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="J50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="K50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="L50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5263,50 +5660,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33079</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175760</v>
+      </c>
+      <c r="C51" t="s">
+        <v>451</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5330,50 +5731,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33079</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175761</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5397,50 +5802,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33079</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>5794</v>
+      </c>
+      <c r="C53" t="s">
+        <v>465</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="J53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="K53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5464,41 +5873,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33079</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175762</v>
+      </c>
+      <c r="C54" t="s">
+        <v>473</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="K54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5527,50 +5940,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33079</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>9746</v>
+      </c>
+      <c r="C55" t="s">
+        <v>479</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="J55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K55" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="L55" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="O55" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5592,47 +6009,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="X55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="Y55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33079</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>175763</v>
+      </c>
+      <c r="C56" t="s">
+        <v>489</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="L56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
@@ -5661,41 +6082,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33079</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>175764</v>
+      </c>
+      <c r="C57" t="s">
+        <v>496</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="J57" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="K57" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -5724,50 +6149,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33079</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175765</v>
+      </c>
+      <c r="C58" t="s">
+        <v>502</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="J58" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="K58" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="L58" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="O58" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5787,50 +6216,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33079</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175766</v>
+      </c>
+      <c r="C59" t="s">
+        <v>510</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="J59" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="K59" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5854,50 +6287,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33079</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>175767</v>
+      </c>
+      <c r="C60" t="s">
+        <v>518</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="J60" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="K60" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="L60" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5921,50 +6358,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33079</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175768</v>
+      </c>
+      <c r="C61" t="s">
+        <v>526</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="J61" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="K61" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="L61" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5988,50 +6429,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33079</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C62" t="s">
+        <v>533</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="J62" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="K62" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="L62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="O62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6055,50 +6500,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33079</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124963</v>
+      </c>
+      <c r="C63" t="s">
+        <v>541</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="J63" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="K63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="L63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="O63" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6122,50 +6571,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33079</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175769</v>
+      </c>
+      <c r="C64" t="s">
+        <v>548</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="J64" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="K64" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="L64" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6189,41 +6642,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33079</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175770</v>
+      </c>
+      <c r="C65" t="s">
+        <v>556</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="J65" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="L65" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6242,41 +6699,45 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33079</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>175771</v>
+      </c>
+      <c r="C66" t="s">
+        <v>563</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="J66" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="K66" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="L66" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
@@ -6295,41 +6756,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33079</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>105240</v>
+      </c>
+      <c r="C67" t="s">
+        <v>570</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="J67" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="K67" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="L67" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -6348,50 +6813,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33079</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>175772</v>
+      </c>
+      <c r="C68" t="s">
+        <v>576</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="J68" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="K68" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="L68" t="s">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="O68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6415,7 +6884,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
